--- a/GroupingExample.xlsx
+++ b/GroupingExample.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david_1q5aypk\Extending-Excel-with-Python-and-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D33450B-DFE9-47F3-A051-4F9C32D923DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CD90C0-298E-4454-9486-D3F5C402E48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="3220" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="5340" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="129" r:id="rId3"/>
+    <pivotCache cacheId="47" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -49,9 +49,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -64,10 +64,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +107,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -134,12 +131,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Kun" refreshedDate="45182.476748379631" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="364" xr:uid="{3849EE38-E61E-4440-BA69-160627AB9725}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Kun" refreshedDate="45365.449763078701" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="364" xr:uid="{B937CE9E-B28D-4E99-A7D5-C8EAF24BAF05}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B365" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
-    <cacheField name="Date" numFmtId="164">
+    <cacheField name="Date" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-01T00:00:00" maxDate="2023-12-31T00:00:00" count="364">
         <d v="2023-01-01T00:00:00"/>
         <d v="2023-01-02T00:00:00"/>
@@ -509,7 +506,7 @@
       <fieldGroup par="3"/>
     </cacheField>
     <cacheField name="Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="111" maxValue="997"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1000"/>
     </cacheField>
     <cacheField name="Total Sales" numFmtId="0" formula="SUM(Sales)" databaseField="0"/>
     <cacheField name="Date2" numFmtId="0" databaseField="0">
@@ -1231,1468 +1228,1468 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="364">
   <r>
     <x v="0"/>
-    <n v="596"/>
+    <n v="594"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="342"/>
+    <n v="776"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="967"/>
+    <n v="607"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="644"/>
+    <n v="822"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="597"/>
+    <n v="200"/>
   </r>
   <r>
     <x v="5"/>
+    <n v="259"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="440"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="489"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="169"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="402"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="741"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="819"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="751"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="173"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="777"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="316"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="296"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="384"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="946"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="552"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="440"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="789"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="754"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="154"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="366"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="212"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="182"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="957"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="697"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="262"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="992"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="618"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="730"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="243"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="451"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="794"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="546"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="675"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="341"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="771"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="185"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="287"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="818"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="473"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="583"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="372"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="836"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="773"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="311"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="135"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="574"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="332"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="539"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="317"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="737"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="977"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="819"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="737"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="804"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="163"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="721"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="983"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="138"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="499"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="562"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="292"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="229"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="737"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="292"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="218"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <n v="437"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <n v="636"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="214"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="484"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="538"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="499"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="894"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <n v="493"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <n v="181"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <n v="539"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <n v="197"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <n v="669"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <n v="401"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <n v="134"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <n v="352"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <n v="527"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <n v="407"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <n v="806"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <n v="696"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <n v="390"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <n v="826"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="913"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <n v="519"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="317"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <n v="337"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <n v="488"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <n v="688"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <n v="506"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <n v="821"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <n v="790"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <n v="927"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <n v="591"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <n v="478"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <n v="464"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <n v="917"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <n v="438"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <n v="503"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <n v="485"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <n v="406"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="759"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="583"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <n v="205"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <n v="944"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <n v="193"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <n v="566"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <n v="166"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <n v="843"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <n v="475"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <n v="732"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <n v="297"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <n v="928"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <n v="933"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <n v="931"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <n v="482"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <n v="831"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <n v="775"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <n v="764"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <n v="758"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <n v="297"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <n v="356"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <n v="535"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <n v="641"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <n v="795"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <n v="980"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <n v="938"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <n v="622"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <n v="404"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <n v="264"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <n v="688"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <n v="539"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <n v="588"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <n v="634"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <n v="689"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <n v="251"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <n v="641"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <n v="311"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <n v="789"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <n v="479"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <n v="212"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <n v="953"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <n v="349"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <n v="222"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <n v="826"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <n v="463"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <n v="799"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <n v="865"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <n v="955"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <n v="513"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <n v="272"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <n v="185"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <n v="582"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <n v="298"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <n v="442"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <n v="554"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <n v="213"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <n v="158"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <n v="478"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <n v="301"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <n v="906"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <n v="495"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <n v="526"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <n v="739"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <n v="494"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <n v="710"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <n v="211"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <n v="365"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <n v="651"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <n v="593"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <n v="386"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <n v="957"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <n v="546"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <n v="913"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <n v="730"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <n v="291"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <n v="784"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <n v="966"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <n v="617"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <n v="654"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <n v="844"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <n v="423"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <n v="325"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <n v="182"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <n v="299"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <n v="505"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <n v="537"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <n v="716"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <n v="361"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <n v="626"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <n v="782"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <n v="459"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <n v="925"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <n v="295"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <n v="579"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <n v="699"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <n v="613"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <n v="246"/>
+  </r>
+  <r>
+    <x v="244"/>
+    <n v="811"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <n v="333"/>
+  </r>
+  <r>
+    <x v="246"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <n v="962"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <n v="767"/>
+  </r>
+  <r>
+    <x v="249"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="250"/>
+    <n v="136"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <x v="252"/>
+    <n v="720"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <n v="511"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <n v="636"/>
+  </r>
+  <r>
+    <x v="255"/>
+    <n v="274"/>
+  </r>
+  <r>
+    <x v="256"/>
+    <n v="344"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <n v="518"/>
+  </r>
+  <r>
+    <x v="258"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <x v="259"/>
+    <n v="930"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <n v="430"/>
+  </r>
+  <r>
+    <x v="261"/>
+    <n v="458"/>
+  </r>
+  <r>
+    <x v="262"/>
+    <n v="804"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <n v="298"/>
+  </r>
+  <r>
+    <x v="264"/>
+    <n v="796"/>
+  </r>
+  <r>
+    <x v="265"/>
+    <n v="197"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <n v="270"/>
+  </r>
+  <r>
+    <x v="267"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <n v="307"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <n v="336"/>
+  </r>
+  <r>
+    <x v="270"/>
+    <n v="640"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <n v="701"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="273"/>
+    <n v="824"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <n v="970"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="277"/>
+    <n v="877"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <n v="983"/>
+  </r>
+  <r>
+    <x v="279"/>
+    <n v="356"/>
+  </r>
+  <r>
+    <x v="280"/>
+    <n v="529"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <n v="783"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <n v="695"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <n v="789"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <n v="742"/>
+  </r>
+  <r>
+    <x v="285"/>
+    <n v="773"/>
+  </r>
+  <r>
+    <x v="286"/>
+    <n v="887"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <n v="845"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <x v="289"/>
+    <n v="463"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <n v="253"/>
+  </r>
+  <r>
+    <x v="291"/>
+    <n v="752"/>
+  </r>
+  <r>
+    <x v="292"/>
+    <n v="970"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <n v="363"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <n v="970"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <n v="595"/>
+  </r>
+  <r>
+    <x v="297"/>
+    <n v="706"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <n v="908"/>
+  </r>
+  <r>
+    <x v="299"/>
+    <n v="592"/>
+  </r>
+  <r>
+    <x v="300"/>
+    <n v="698"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <n v="682"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <n v="468"/>
+  </r>
+  <r>
+    <x v="303"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <n v="292"/>
+  </r>
+  <r>
+    <x v="305"/>
+    <n v="844"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <x v="307"/>
+    <n v="663"/>
+  </r>
+  <r>
+    <x v="308"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <x v="309"/>
+    <n v="824"/>
+  </r>
+  <r>
+    <x v="310"/>
+    <n v="636"/>
+  </r>
+  <r>
+    <x v="311"/>
+    <n v="176"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <n v="670"/>
+  </r>
+  <r>
+    <x v="313"/>
+    <n v="113"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <n v="653"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <n v="761"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <n v="894"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <n v="527"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <n v="803"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <n v="525"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <n v="490"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <n v="545"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <n v="153"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <n v="548"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <n v="962"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <n v="578"/>
+  </r>
+  <r>
+    <x v="327"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <n v="137"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <n v="288"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <n v="512"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <n v="409"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <n v="840"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <n v="853"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <n v="166"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <n v="528"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <n v="685"/>
+  </r>
+  <r>
+    <x v="340"/>
     <n v="975"/>
   </r>
   <r>
-    <x v="6"/>
-    <n v="984"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="629"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="285"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="895"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="444"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="309"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="885"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="232"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="240"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="464"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="504"/>
-  </r>
-  <r>
-    <x v="17"/>
+    <x v="341"/>
+    <n v="545"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <n v="222"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <n v="997"/>
+  </r>
+  <r>
+    <x v="344"/>
+    <n v="713"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <n v="966"/>
+  </r>
+  <r>
+    <x v="346"/>
+    <n v="617"/>
+  </r>
+  <r>
+    <x v="347"/>
+    <n v="869"/>
+  </r>
+  <r>
+    <x v="348"/>
+    <n v="688"/>
+  </r>
+  <r>
+    <x v="349"/>
+    <n v="591"/>
+  </r>
+  <r>
+    <x v="350"/>
+    <n v="976"/>
+  </r>
+  <r>
+    <x v="351"/>
+    <n v="745"/>
+  </r>
+  <r>
+    <x v="352"/>
+    <n v="632"/>
+  </r>
+  <r>
+    <x v="353"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <x v="354"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="355"/>
+    <n v="857"/>
+  </r>
+  <r>
+    <x v="356"/>
+    <n v="605"/>
+  </r>
+  <r>
+    <x v="357"/>
+    <n v="538"/>
+  </r>
+  <r>
+    <x v="358"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <x v="359"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="360"/>
     <n v="989"/>
   </r>
   <r>
-    <x v="18"/>
-    <n v="677"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="802"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <n v="661"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <n v="140"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <n v="256"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <n v="593"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <n v="449"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <n v="710"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <n v="886"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <n v="585"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <n v="398"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <n v="291"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <n v="799"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <n v="517"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <n v="748"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <n v="124"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <n v="665"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <n v="113"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <n v="869"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <n v="628"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <n v="359"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <n v="803"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <n v="301"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <n v="745"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <n v="546"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <n v="294"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <n v="469"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <n v="515"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <n v="256"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <n v="396"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <n v="973"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <n v="829"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <n v="455"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <n v="894"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <n v="248"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <n v="586"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <n v="389"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <n v="711"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <n v="348"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <n v="433"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <n v="348"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <n v="539"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <n v="445"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <n v="533"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <n v="149"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <n v="983"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <n v="899"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <n v="354"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <n v="796"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <n v="351"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <n v="513"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <n v="777"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <n v="646"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <n v="631"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <n v="977"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <n v="538"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <n v="707"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <n v="448"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <n v="707"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <n v="298"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <n v="574"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <n v="619"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <n v="575"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <n v="667"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <n v="736"/>
-  </r>
-  <r>
-    <x v="88"/>
-    <n v="432"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <n v="555"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <n v="243"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <n v="764"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <n v="293"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <n v="580"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <n v="302"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <n v="185"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <n v="357"/>
-  </r>
-  <r>
-    <x v="97"/>
-    <n v="874"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <n v="119"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <n v="206"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <n v="526"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <n v="872"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <n v="796"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <n v="656"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <n v="990"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <n v="497"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <n v="921"/>
-  </r>
-  <r>
-    <x v="107"/>
-    <n v="573"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <n v="185"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <n v="468"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <n v="822"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <n v="677"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <n v="780"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <n v="808"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <n v="197"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <x v="116"/>
-    <n v="847"/>
-  </r>
-  <r>
-    <x v="117"/>
-    <n v="114"/>
-  </r>
-  <r>
-    <x v="118"/>
-    <n v="719"/>
-  </r>
-  <r>
-    <x v="119"/>
-    <n v="116"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <n v="356"/>
-  </r>
-  <r>
-    <x v="121"/>
-    <n v="305"/>
-  </r>
-  <r>
-    <x v="122"/>
-    <n v="783"/>
-  </r>
-  <r>
-    <x v="123"/>
-    <n v="397"/>
-  </r>
-  <r>
-    <x v="124"/>
-    <n v="936"/>
-  </r>
-  <r>
-    <x v="125"/>
-    <n v="891"/>
-  </r>
-  <r>
-    <x v="126"/>
-    <n v="847"/>
-  </r>
-  <r>
-    <x v="127"/>
-    <n v="163"/>
-  </r>
-  <r>
-    <x v="128"/>
-    <n v="258"/>
-  </r>
-  <r>
-    <x v="129"/>
-    <n v="560"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <n v="222"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <n v="115"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <n v="930"/>
-  </r>
-  <r>
-    <x v="134"/>
-    <n v="938"/>
-  </r>
-  <r>
-    <x v="135"/>
-    <n v="632"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <n v="308"/>
-  </r>
-  <r>
-    <x v="137"/>
-    <n v="578"/>
-  </r>
-  <r>
-    <x v="138"/>
-    <n v="935"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <n v="619"/>
-  </r>
-  <r>
-    <x v="140"/>
-    <n v="898"/>
-  </r>
-  <r>
-    <x v="141"/>
-    <n v="911"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <n v="272"/>
-  </r>
-  <r>
-    <x v="143"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <x v="144"/>
-    <n v="605"/>
-  </r>
-  <r>
-    <x v="145"/>
-    <n v="940"/>
-  </r>
-  <r>
-    <x v="146"/>
-    <n v="170"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <n v="487"/>
-  </r>
-  <r>
-    <x v="148"/>
-    <n v="468"/>
-  </r>
-  <r>
-    <x v="149"/>
-    <n v="536"/>
-  </r>
-  <r>
-    <x v="150"/>
-    <n v="664"/>
-  </r>
-  <r>
-    <x v="151"/>
-    <n v="393"/>
-  </r>
-  <r>
-    <x v="152"/>
-    <n v="625"/>
-  </r>
-  <r>
-    <x v="153"/>
-    <n v="866"/>
-  </r>
-  <r>
-    <x v="154"/>
-    <n v="304"/>
-  </r>
-  <r>
-    <x v="155"/>
-    <n v="830"/>
-  </r>
-  <r>
-    <x v="156"/>
-    <n v="438"/>
-  </r>
-  <r>
-    <x v="157"/>
-    <n v="470"/>
-  </r>
-  <r>
-    <x v="158"/>
-    <n v="543"/>
-  </r>
-  <r>
-    <x v="159"/>
-    <n v="873"/>
-  </r>
-  <r>
-    <x v="160"/>
-    <n v="655"/>
-  </r>
-  <r>
-    <x v="161"/>
-    <n v="861"/>
-  </r>
-  <r>
-    <x v="162"/>
-    <n v="197"/>
-  </r>
-  <r>
-    <x v="163"/>
-    <n v="775"/>
-  </r>
-  <r>
-    <x v="164"/>
-    <n v="437"/>
-  </r>
-  <r>
-    <x v="165"/>
-    <n v="550"/>
-  </r>
-  <r>
-    <x v="166"/>
-    <n v="699"/>
-  </r>
-  <r>
-    <x v="167"/>
-    <n v="439"/>
-  </r>
-  <r>
-    <x v="168"/>
-    <n v="123"/>
-  </r>
-  <r>
-    <x v="169"/>
-    <n v="236"/>
-  </r>
-  <r>
-    <x v="170"/>
-    <n v="247"/>
-  </r>
-  <r>
-    <x v="171"/>
-    <n v="919"/>
-  </r>
-  <r>
-    <x v="172"/>
-    <n v="761"/>
-  </r>
-  <r>
-    <x v="173"/>
-    <n v="942"/>
-  </r>
-  <r>
-    <x v="174"/>
-    <n v="849"/>
-  </r>
-  <r>
-    <x v="175"/>
-    <n v="505"/>
-  </r>
-  <r>
-    <x v="176"/>
-    <n v="709"/>
-  </r>
-  <r>
-    <x v="177"/>
-    <n v="281"/>
-  </r>
-  <r>
-    <x v="178"/>
-    <n v="256"/>
-  </r>
-  <r>
-    <x v="179"/>
-    <n v="199"/>
-  </r>
-  <r>
-    <x v="180"/>
-    <n v="815"/>
-  </r>
-  <r>
-    <x v="181"/>
-    <n v="548"/>
-  </r>
-  <r>
-    <x v="182"/>
-    <n v="658"/>
-  </r>
-  <r>
-    <x v="183"/>
-    <n v="674"/>
-  </r>
-  <r>
-    <x v="184"/>
-    <n v="272"/>
-  </r>
-  <r>
-    <x v="185"/>
-    <n v="134"/>
-  </r>
-  <r>
-    <x v="186"/>
-    <n v="804"/>
-  </r>
-  <r>
-    <x v="187"/>
-    <n v="476"/>
-  </r>
-  <r>
-    <x v="188"/>
-    <n v="352"/>
-  </r>
-  <r>
-    <x v="189"/>
-    <n v="350"/>
-  </r>
-  <r>
-    <x v="190"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <x v="191"/>
-    <n v="194"/>
-  </r>
-  <r>
-    <x v="192"/>
-    <n v="491"/>
-  </r>
-  <r>
-    <x v="193"/>
-    <n v="327"/>
-  </r>
-  <r>
-    <x v="194"/>
-    <n v="227"/>
-  </r>
-  <r>
-    <x v="195"/>
-    <n v="634"/>
-  </r>
-  <r>
-    <x v="196"/>
-    <n v="327"/>
-  </r>
-  <r>
-    <x v="197"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="198"/>
-    <n v="775"/>
-  </r>
-  <r>
-    <x v="199"/>
-    <n v="556"/>
-  </r>
-  <r>
-    <x v="200"/>
-    <n v="425"/>
-  </r>
-  <r>
-    <x v="201"/>
-    <n v="821"/>
-  </r>
-  <r>
-    <x v="202"/>
-    <n v="865"/>
-  </r>
-  <r>
-    <x v="203"/>
-    <n v="442"/>
-  </r>
-  <r>
-    <x v="204"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <x v="205"/>
-    <n v="343"/>
-  </r>
-  <r>
-    <x v="206"/>
-    <n v="798"/>
-  </r>
-  <r>
-    <x v="207"/>
-    <n v="572"/>
-  </r>
-  <r>
-    <x v="208"/>
-    <n v="235"/>
-  </r>
-  <r>
-    <x v="209"/>
-    <n v="278"/>
-  </r>
-  <r>
-    <x v="210"/>
-    <n v="443"/>
-  </r>
-  <r>
-    <x v="211"/>
-    <n v="308"/>
-  </r>
-  <r>
-    <x v="212"/>
-    <n v="147"/>
-  </r>
-  <r>
-    <x v="213"/>
-    <n v="463"/>
-  </r>
-  <r>
-    <x v="214"/>
-    <n v="218"/>
-  </r>
-  <r>
-    <x v="215"/>
-    <n v="751"/>
-  </r>
-  <r>
-    <x v="216"/>
-    <n v="410"/>
-  </r>
-  <r>
-    <x v="217"/>
-    <n v="291"/>
-  </r>
-  <r>
-    <x v="218"/>
-    <n v="197"/>
-  </r>
-  <r>
-    <x v="219"/>
-    <n v="997"/>
-  </r>
-  <r>
-    <x v="220"/>
-    <n v="438"/>
-  </r>
-  <r>
-    <x v="221"/>
-    <n v="233"/>
-  </r>
-  <r>
-    <x v="222"/>
-    <n v="597"/>
-  </r>
-  <r>
-    <x v="223"/>
-    <n v="384"/>
-  </r>
-  <r>
-    <x v="224"/>
-    <n v="862"/>
-  </r>
-  <r>
-    <x v="225"/>
-    <n v="815"/>
-  </r>
-  <r>
-    <x v="226"/>
-    <n v="579"/>
-  </r>
-  <r>
-    <x v="227"/>
-    <n v="212"/>
-  </r>
-  <r>
-    <x v="228"/>
-    <n v="288"/>
-  </r>
-  <r>
-    <x v="229"/>
-    <n v="806"/>
-  </r>
-  <r>
-    <x v="230"/>
-    <n v="997"/>
-  </r>
-  <r>
-    <x v="231"/>
-    <n v="888"/>
-  </r>
-  <r>
-    <x v="232"/>
-    <n v="205"/>
-  </r>
-  <r>
-    <x v="233"/>
-    <n v="309"/>
-  </r>
-  <r>
-    <x v="234"/>
-    <n v="790"/>
-  </r>
-  <r>
-    <x v="235"/>
-    <n v="128"/>
-  </r>
-  <r>
-    <x v="236"/>
-    <n v="609"/>
-  </r>
-  <r>
-    <x v="237"/>
-    <n v="857"/>
-  </r>
-  <r>
-    <x v="238"/>
-    <n v="381"/>
-  </r>
-  <r>
-    <x v="239"/>
-    <n v="656"/>
-  </r>
-  <r>
-    <x v="240"/>
-    <n v="838"/>
-  </r>
-  <r>
-    <x v="241"/>
-    <n v="222"/>
-  </r>
-  <r>
-    <x v="242"/>
-    <n v="384"/>
-  </r>
-  <r>
-    <x v="243"/>
-    <n v="844"/>
-  </r>
-  <r>
-    <x v="244"/>
-    <n v="662"/>
-  </r>
-  <r>
-    <x v="245"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="246"/>
-    <n v="624"/>
-  </r>
-  <r>
-    <x v="247"/>
-    <n v="961"/>
-  </r>
-  <r>
-    <x v="248"/>
-    <n v="897"/>
-  </r>
-  <r>
-    <x v="249"/>
-    <n v="338"/>
-  </r>
-  <r>
-    <x v="250"/>
-    <n v="984"/>
-  </r>
-  <r>
-    <x v="251"/>
-    <n v="350"/>
-  </r>
-  <r>
-    <x v="252"/>
-    <n v="216"/>
-  </r>
-  <r>
-    <x v="253"/>
-    <n v="288"/>
-  </r>
-  <r>
-    <x v="254"/>
-    <n v="875"/>
-  </r>
-  <r>
-    <x v="255"/>
-    <n v="982"/>
-  </r>
-  <r>
-    <x v="256"/>
-    <n v="601"/>
-  </r>
-  <r>
-    <x v="257"/>
-    <n v="768"/>
-  </r>
-  <r>
-    <x v="258"/>
-    <n v="217"/>
-  </r>
-  <r>
-    <x v="259"/>
-    <n v="129"/>
-  </r>
-  <r>
-    <x v="260"/>
-    <n v="864"/>
-  </r>
-  <r>
-    <x v="261"/>
-    <n v="451"/>
-  </r>
-  <r>
-    <x v="262"/>
-    <n v="416"/>
-  </r>
-  <r>
-    <x v="263"/>
-    <n v="794"/>
-  </r>
-  <r>
-    <x v="264"/>
-    <n v="632"/>
-  </r>
-  <r>
-    <x v="265"/>
-    <n v="327"/>
-  </r>
-  <r>
-    <x v="266"/>
-    <n v="186"/>
-  </r>
-  <r>
-    <x v="267"/>
-    <n v="424"/>
-  </r>
-  <r>
-    <x v="268"/>
-    <n v="942"/>
-  </r>
-  <r>
-    <x v="269"/>
-    <n v="321"/>
-  </r>
-  <r>
-    <x v="270"/>
-    <n v="271"/>
-  </r>
-  <r>
-    <x v="271"/>
-    <n v="991"/>
-  </r>
-  <r>
-    <x v="272"/>
-    <n v="626"/>
-  </r>
-  <r>
-    <x v="273"/>
-    <n v="859"/>
-  </r>
-  <r>
-    <x v="274"/>
-    <n v="653"/>
-  </r>
-  <r>
-    <x v="275"/>
-    <n v="583"/>
-  </r>
-  <r>
-    <x v="276"/>
-    <n v="557"/>
-  </r>
-  <r>
-    <x v="277"/>
-    <n v="271"/>
-  </r>
-  <r>
-    <x v="278"/>
-    <n v="154"/>
-  </r>
-  <r>
-    <x v="279"/>
-    <n v="215"/>
-  </r>
-  <r>
-    <x v="280"/>
-    <n v="834"/>
-  </r>
-  <r>
-    <x v="281"/>
-    <n v="931"/>
-  </r>
-  <r>
-    <x v="282"/>
-    <n v="626"/>
-  </r>
-  <r>
-    <x v="283"/>
-    <n v="260"/>
-  </r>
-  <r>
-    <x v="284"/>
-    <n v="534"/>
-  </r>
-  <r>
-    <x v="285"/>
-    <n v="316"/>
-  </r>
-  <r>
-    <x v="286"/>
-    <n v="162"/>
-  </r>
-  <r>
-    <x v="287"/>
-    <n v="323"/>
-  </r>
-  <r>
-    <x v="288"/>
-    <n v="939"/>
-  </r>
-  <r>
-    <x v="289"/>
-    <n v="706"/>
-  </r>
-  <r>
-    <x v="290"/>
-    <n v="888"/>
-  </r>
-  <r>
-    <x v="291"/>
-    <n v="667"/>
-  </r>
-  <r>
-    <x v="292"/>
-    <n v="272"/>
-  </r>
-  <r>
-    <x v="293"/>
-    <n v="379"/>
-  </r>
-  <r>
-    <x v="294"/>
-    <n v="445"/>
-  </r>
-  <r>
-    <x v="295"/>
-    <n v="506"/>
-  </r>
-  <r>
-    <x v="296"/>
-    <n v="259"/>
-  </r>
-  <r>
-    <x v="297"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <x v="298"/>
-    <n v="963"/>
-  </r>
-  <r>
-    <x v="299"/>
-    <n v="503"/>
-  </r>
-  <r>
-    <x v="300"/>
-    <n v="915"/>
-  </r>
-  <r>
-    <x v="301"/>
-    <n v="304"/>
-  </r>
-  <r>
-    <x v="302"/>
-    <n v="557"/>
-  </r>
-  <r>
-    <x v="303"/>
-    <n v="355"/>
-  </r>
-  <r>
-    <x v="304"/>
-    <n v="996"/>
-  </r>
-  <r>
-    <x v="305"/>
-    <n v="331"/>
-  </r>
-  <r>
-    <x v="306"/>
-    <n v="411"/>
-  </r>
-  <r>
-    <x v="307"/>
-    <n v="382"/>
-  </r>
-  <r>
-    <x v="308"/>
-    <n v="965"/>
-  </r>
-  <r>
-    <x v="309"/>
-    <n v="221"/>
-  </r>
-  <r>
-    <x v="310"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <x v="311"/>
-    <n v="538"/>
-  </r>
-  <r>
-    <x v="312"/>
-    <n v="697"/>
-  </r>
-  <r>
-    <x v="313"/>
-    <n v="485"/>
-  </r>
-  <r>
-    <x v="314"/>
-    <n v="497"/>
-  </r>
-  <r>
-    <x v="315"/>
-    <n v="756"/>
-  </r>
-  <r>
-    <x v="316"/>
-    <n v="901"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <n v="331"/>
-  </r>
-  <r>
-    <x v="318"/>
-    <n v="651"/>
-  </r>
-  <r>
-    <x v="319"/>
-    <n v="655"/>
-  </r>
-  <r>
-    <x v="320"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <x v="321"/>
-    <n v="994"/>
-  </r>
-  <r>
-    <x v="322"/>
-    <n v="553"/>
-  </r>
-  <r>
-    <x v="323"/>
-    <n v="665"/>
-  </r>
-  <r>
-    <x v="324"/>
-    <n v="332"/>
-  </r>
-  <r>
-    <x v="325"/>
-    <n v="544"/>
-  </r>
-  <r>
-    <x v="326"/>
-    <n v="883"/>
-  </r>
-  <r>
-    <x v="327"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="328"/>
-    <n v="425"/>
-  </r>
-  <r>
-    <x v="329"/>
-    <n v="715"/>
-  </r>
-  <r>
-    <x v="330"/>
-    <n v="441"/>
-  </r>
-  <r>
-    <x v="331"/>
-    <n v="549"/>
-  </r>
-  <r>
-    <x v="332"/>
-    <n v="207"/>
-  </r>
-  <r>
-    <x v="333"/>
-    <n v="971"/>
-  </r>
-  <r>
-    <x v="334"/>
-    <n v="352"/>
-  </r>
-  <r>
-    <x v="335"/>
-    <n v="252"/>
-  </r>
-  <r>
-    <x v="336"/>
-    <n v="637"/>
-  </r>
-  <r>
-    <x v="337"/>
-    <n v="776"/>
-  </r>
-  <r>
-    <x v="338"/>
-    <n v="336"/>
-  </r>
-  <r>
-    <x v="339"/>
-    <n v="543"/>
-  </r>
-  <r>
-    <x v="340"/>
-    <n v="111"/>
-  </r>
-  <r>
-    <x v="341"/>
-    <n v="547"/>
-  </r>
-  <r>
-    <x v="342"/>
-    <n v="224"/>
-  </r>
-  <r>
-    <x v="343"/>
-    <n v="243"/>
-  </r>
-  <r>
-    <x v="344"/>
-    <n v="753"/>
-  </r>
-  <r>
-    <x v="345"/>
-    <n v="975"/>
-  </r>
-  <r>
-    <x v="346"/>
-    <n v="667"/>
-  </r>
-  <r>
-    <x v="347"/>
-    <n v="155"/>
-  </r>
-  <r>
-    <x v="348"/>
-    <n v="812"/>
-  </r>
-  <r>
-    <x v="349"/>
-    <n v="697"/>
-  </r>
-  <r>
-    <x v="350"/>
-    <n v="785"/>
-  </r>
-  <r>
-    <x v="351"/>
-    <n v="899"/>
-  </r>
-  <r>
-    <x v="352"/>
-    <n v="591"/>
-  </r>
-  <r>
-    <x v="353"/>
-    <n v="529"/>
-  </r>
-  <r>
-    <x v="354"/>
-    <n v="506"/>
-  </r>
-  <r>
-    <x v="355"/>
-    <n v="314"/>
-  </r>
-  <r>
-    <x v="356"/>
-    <n v="188"/>
-  </r>
-  <r>
-    <x v="357"/>
-    <n v="497"/>
-  </r>
-  <r>
-    <x v="358"/>
-    <n v="810"/>
-  </r>
-  <r>
-    <x v="359"/>
-    <n v="674"/>
-  </r>
-  <r>
-    <x v="360"/>
-    <n v="902"/>
-  </r>
-  <r>
     <x v="361"/>
-    <n v="788"/>
+    <n v="603"/>
   </r>
   <r>
     <x v="362"/>
-    <n v="289"/>
+    <n v="817"/>
   </r>
   <r>
     <x v="363"/>
-    <n v="663"/>
+    <n v="696"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AED1CBC-D67D-42F3-9231-4C7C24DE5F09}" name="MyPivotTable" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DE4A796-EEB0-40D0-942C-7B5522197CCE}" name="MyPivotTable" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B338" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisRow" numFmtId="166" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField axis="axisRow" numFmtId="167" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="364">
         <item x="0"/>
         <item x="1"/>
@@ -3062,7 +3059,7 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" numFmtId="165" showAll="0">
+    <pivotField axis="axisRow" numFmtId="166" showAll="0">
       <items count="335">
         <item sd="0" x="333"/>
         <item sd="0" x="0"/>
@@ -4429,9 +4426,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4469,7 +4466,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4503,7 +4500,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4538,10 +4534,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4714,7 +4709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7567C-DACB-4F95-93AC-E7A2BC9D1700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01EB4DC-8D52-4A68-A05F-70CE175DADD9}">
   <dimension ref="A3:B338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4738,7 +4733,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>17629</v>
+        <v>16007</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4746,7 +4741,7 @@
         <v>44958</v>
       </c>
       <c r="B5" s="4">
-        <v>799</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4754,7 +4749,7 @@
         <v>44959</v>
       </c>
       <c r="B6" s="4">
-        <v>517</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4762,7 +4757,7 @@
         <v>44960</v>
       </c>
       <c r="B7" s="4">
-        <v>748</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4770,7 +4765,7 @@
         <v>44961</v>
       </c>
       <c r="B8" s="4">
-        <v>124</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4778,7 +4773,7 @@
         <v>44962</v>
       </c>
       <c r="B9" s="4">
-        <v>665</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4786,7 +4781,7 @@
         <v>44963</v>
       </c>
       <c r="B10" s="4">
-        <v>113</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4794,7 +4789,7 @@
         <v>44964</v>
       </c>
       <c r="B11" s="4">
-        <v>869</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4802,7 +4797,7 @@
         <v>44965</v>
       </c>
       <c r="B12" s="4">
-        <v>628</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4810,7 +4805,7 @@
         <v>44966</v>
       </c>
       <c r="B13" s="4">
-        <v>359</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4818,7 +4813,7 @@
         <v>44967</v>
       </c>
       <c r="B14" s="4">
-        <v>803</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4826,7 +4821,7 @@
         <v>44968</v>
       </c>
       <c r="B15" s="4">
-        <v>118</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4834,7 +4829,7 @@
         <v>44969</v>
       </c>
       <c r="B16" s="4">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4842,7 +4837,7 @@
         <v>44970</v>
       </c>
       <c r="B17" s="4">
-        <v>745</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4850,7 +4845,7 @@
         <v>44971</v>
       </c>
       <c r="B18" s="4">
-        <v>546</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4858,7 +4853,7 @@
         <v>44972</v>
       </c>
       <c r="B19" s="4">
-        <v>294</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4866,7 +4861,7 @@
         <v>44973</v>
       </c>
       <c r="B20" s="4">
-        <v>413</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4874,7 +4869,7 @@
         <v>44974</v>
       </c>
       <c r="B21" s="4">
-        <v>469</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4882,7 +4877,7 @@
         <v>44975</v>
       </c>
       <c r="B22" s="4">
-        <v>515</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4890,7 +4885,7 @@
         <v>44976</v>
       </c>
       <c r="B23" s="4">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4898,7 +4893,7 @@
         <v>44977</v>
       </c>
       <c r="B24" s="4">
-        <v>396</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4906,7 +4901,7 @@
         <v>44978</v>
       </c>
       <c r="B25" s="4">
-        <v>973</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4914,7 +4909,7 @@
         <v>44979</v>
       </c>
       <c r="B26" s="4">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4922,7 +4917,7 @@
         <v>44980</v>
       </c>
       <c r="B27" s="4">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4930,7 +4925,7 @@
         <v>44981</v>
       </c>
       <c r="B28" s="4">
-        <v>894</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4938,7 +4933,7 @@
         <v>44982</v>
       </c>
       <c r="B29" s="4">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -4946,7 +4941,7 @@
         <v>44983</v>
       </c>
       <c r="B30" s="4">
-        <v>586</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -4954,7 +4949,7 @@
         <v>44984</v>
       </c>
       <c r="B31" s="4">
-        <v>389</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4962,7 +4957,7 @@
         <v>44985</v>
       </c>
       <c r="B32" s="4">
-        <v>711</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4970,7 +4965,7 @@
         <v>44986</v>
       </c>
       <c r="B33" s="4">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -4978,7 +4973,7 @@
         <v>44987</v>
       </c>
       <c r="B34" s="4">
-        <v>433</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4986,7 +4981,7 @@
         <v>44988</v>
       </c>
       <c r="B35" s="4">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -4994,7 +4989,7 @@
         <v>44989</v>
       </c>
       <c r="B36" s="4">
-        <v>539</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -5002,7 +4997,7 @@
         <v>44990</v>
       </c>
       <c r="B37" s="4">
-        <v>445</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5010,7 +5005,7 @@
         <v>44991</v>
       </c>
       <c r="B38" s="4">
-        <v>533</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5018,7 +5013,7 @@
         <v>44992</v>
       </c>
       <c r="B39" s="4">
-        <v>399</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5026,7 +5021,7 @@
         <v>44993</v>
       </c>
       <c r="B40" s="4">
-        <v>149</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5034,7 +5029,7 @@
         <v>44994</v>
       </c>
       <c r="B41" s="4">
-        <v>983</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5042,7 +5037,7 @@
         <v>44995</v>
       </c>
       <c r="B42" s="4">
-        <v>899</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5050,7 +5045,7 @@
         <v>44996</v>
       </c>
       <c r="B43" s="4">
-        <v>354</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5058,7 +5053,7 @@
         <v>44997</v>
       </c>
       <c r="B44" s="4">
-        <v>796</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5066,7 +5061,7 @@
         <v>44998</v>
       </c>
       <c r="B45" s="4">
-        <v>351</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5074,7 +5069,7 @@
         <v>44999</v>
       </c>
       <c r="B46" s="4">
-        <v>513</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5082,7 +5077,7 @@
         <v>45000</v>
       </c>
       <c r="B47" s="4">
-        <v>777</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5090,7 +5085,7 @@
         <v>45001</v>
       </c>
       <c r="B48" s="4">
-        <v>646</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5098,7 +5093,7 @@
         <v>45002</v>
       </c>
       <c r="B49" s="4">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5106,7 +5101,7 @@
         <v>45003</v>
       </c>
       <c r="B50" s="4">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -5114,7 +5109,7 @@
         <v>45004</v>
       </c>
       <c r="B51" s="4">
-        <v>538</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -5122,7 +5117,7 @@
         <v>45005</v>
       </c>
       <c r="B52" s="4">
-        <v>707</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -5130,7 +5125,7 @@
         <v>45006</v>
       </c>
       <c r="B53" s="4">
-        <v>448</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -5138,7 +5133,7 @@
         <v>45007</v>
       </c>
       <c r="B54" s="4">
-        <v>707</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -5146,7 +5141,7 @@
         <v>45008</v>
       </c>
       <c r="B55" s="4">
-        <v>298</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -5154,7 +5149,7 @@
         <v>45009</v>
       </c>
       <c r="B56" s="4">
-        <v>574</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -5162,7 +5157,7 @@
         <v>45010</v>
       </c>
       <c r="B57" s="4">
-        <v>619</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -5170,7 +5165,7 @@
         <v>45011</v>
       </c>
       <c r="B58" s="4">
-        <v>391</v>
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -5178,7 +5173,7 @@
         <v>45012</v>
       </c>
       <c r="B59" s="4">
-        <v>575</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -5186,7 +5181,7 @@
         <v>45013</v>
       </c>
       <c r="B60" s="4">
-        <v>667</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -5194,7 +5189,7 @@
         <v>45014</v>
       </c>
       <c r="B61" s="4">
-        <v>736</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -5202,7 +5197,7 @@
         <v>45015</v>
       </c>
       <c r="B62" s="4">
-        <v>432</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5210,7 +5205,7 @@
         <v>45016</v>
       </c>
       <c r="B63" s="4">
-        <v>555</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -5218,7 +5213,7 @@
         <v>45017</v>
       </c>
       <c r="B64" s="4">
-        <v>243</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -5226,7 +5221,7 @@
         <v>45018</v>
       </c>
       <c r="B65" s="4">
-        <v>764</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -5234,7 +5229,7 @@
         <v>45019</v>
       </c>
       <c r="B66" s="4">
-        <v>293</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -5242,7 +5237,7 @@
         <v>45020</v>
       </c>
       <c r="B67" s="4">
-        <v>580</v>
+        <v>894</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -5250,7 +5245,7 @@
         <v>45021</v>
       </c>
       <c r="B68" s="4">
-        <v>302</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -5258,7 +5253,7 @@
         <v>45022</v>
       </c>
       <c r="B69" s="4">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -5266,7 +5261,7 @@
         <v>45023</v>
       </c>
       <c r="B70" s="4">
-        <v>357</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -5274,7 +5269,7 @@
         <v>45024</v>
       </c>
       <c r="B71" s="4">
-        <v>874</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -5282,7 +5277,7 @@
         <v>45025</v>
       </c>
       <c r="B72" s="4">
-        <v>119</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -5290,7 +5285,7 @@
         <v>45026</v>
       </c>
       <c r="B73" s="4">
-        <v>206</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -5298,7 +5293,7 @@
         <v>45027</v>
       </c>
       <c r="B74" s="4">
-        <v>526</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -5306,7 +5301,7 @@
         <v>45028</v>
       </c>
       <c r="B75" s="4">
-        <v>872</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -5314,7 +5309,7 @@
         <v>45029</v>
       </c>
       <c r="B76" s="4">
-        <v>796</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -5322,7 +5317,7 @@
         <v>45030</v>
       </c>
       <c r="B77" s="4">
-        <v>656</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -5330,7 +5325,7 @@
         <v>45031</v>
       </c>
       <c r="B78" s="4">
-        <v>990</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -5338,7 +5333,7 @@
         <v>45032</v>
       </c>
       <c r="B79" s="4">
-        <v>497</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -5346,7 +5341,7 @@
         <v>45033</v>
       </c>
       <c r="B80" s="4">
-        <v>921</v>
+        <v>696</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -5354,7 +5349,7 @@
         <v>45034</v>
       </c>
       <c r="B81" s="4">
-        <v>573</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -5362,7 +5357,7 @@
         <v>45035</v>
       </c>
       <c r="B82" s="4">
-        <v>185</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -5370,7 +5365,7 @@
         <v>45036</v>
       </c>
       <c r="B83" s="4">
-        <v>468</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -5378,7 +5373,7 @@
         <v>45037</v>
       </c>
       <c r="B84" s="4">
-        <v>822</v>
+        <v>913</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -5386,7 +5381,7 @@
         <v>45038</v>
       </c>
       <c r="B85" s="4">
-        <v>677</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -5394,7 +5389,7 @@
         <v>45039</v>
       </c>
       <c r="B86" s="4">
-        <v>780</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -5402,7 +5397,7 @@
         <v>45040</v>
       </c>
       <c r="B87" s="4">
-        <v>808</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -5410,7 +5405,7 @@
         <v>45041</v>
       </c>
       <c r="B88" s="4">
-        <v>197</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -5418,7 +5413,7 @@
         <v>45042</v>
       </c>
       <c r="B89" s="4">
-        <v>399</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -5426,7 +5421,7 @@
         <v>45043</v>
       </c>
       <c r="B90" s="4">
-        <v>847</v>
+        <v>688</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -5434,7 +5429,7 @@
         <v>45044</v>
       </c>
       <c r="B91" s="4">
-        <v>114</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -5442,7 +5437,7 @@
         <v>45045</v>
       </c>
       <c r="B92" s="4">
-        <v>719</v>
+        <v>821</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -5450,7 +5445,7 @@
         <v>45046</v>
       </c>
       <c r="B93" s="4">
-        <v>116</v>
+        <v>790</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -5458,7 +5453,7 @@
         <v>45047</v>
       </c>
       <c r="B94" s="4">
-        <v>356</v>
+        <v>927</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -5466,7 +5461,7 @@
         <v>45048</v>
       </c>
       <c r="B95" s="4">
-        <v>305</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -5474,7 +5469,7 @@
         <v>45049</v>
       </c>
       <c r="B96" s="4">
-        <v>783</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -5482,7 +5477,7 @@
         <v>45050</v>
       </c>
       <c r="B97" s="4">
-        <v>397</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -5490,7 +5485,7 @@
         <v>45051</v>
       </c>
       <c r="B98" s="4">
-        <v>936</v>
+        <v>917</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -5498,7 +5493,7 @@
         <v>45052</v>
       </c>
       <c r="B99" s="4">
-        <v>891</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -5506,7 +5501,7 @@
         <v>45053</v>
       </c>
       <c r="B100" s="4">
-        <v>847</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -5514,7 +5509,7 @@
         <v>45054</v>
       </c>
       <c r="B101" s="4">
-        <v>163</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -5522,7 +5517,7 @@
         <v>45055</v>
       </c>
       <c r="B102" s="4">
-        <v>258</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -5530,7 +5525,7 @@
         <v>45056</v>
       </c>
       <c r="B103" s="4">
-        <v>560</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -5538,7 +5533,7 @@
         <v>45057</v>
       </c>
       <c r="B104" s="4">
-        <v>222</v>
+        <v>759</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -5546,7 +5541,7 @@
         <v>45058</v>
       </c>
       <c r="B105" s="4">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -5554,7 +5549,7 @@
         <v>45059</v>
       </c>
       <c r="B106" s="4">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -5562,7 +5557,7 @@
         <v>45060</v>
       </c>
       <c r="B107" s="4">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -5570,7 +5565,7 @@
         <v>45061</v>
       </c>
       <c r="B108" s="4">
-        <v>938</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -5578,7 +5573,7 @@
         <v>45062</v>
       </c>
       <c r="B109" s="4">
-        <v>632</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -5586,7 +5581,7 @@
         <v>45063</v>
       </c>
       <c r="B110" s="4">
-        <v>308</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -5594,7 +5589,7 @@
         <v>45064</v>
       </c>
       <c r="B111" s="4">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -5602,7 +5597,7 @@
         <v>45065</v>
       </c>
       <c r="B112" s="4">
-        <v>935</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -5610,7 +5605,7 @@
         <v>45066</v>
       </c>
       <c r="B113" s="4">
-        <v>619</v>
+        <v>843</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -5618,7 +5613,7 @@
         <v>45067</v>
       </c>
       <c r="B114" s="4">
-        <v>898</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -5626,7 +5621,7 @@
         <v>45068</v>
       </c>
       <c r="B115" s="4">
-        <v>911</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -5634,7 +5629,7 @@
         <v>45069</v>
       </c>
       <c r="B116" s="4">
-        <v>272</v>
+        <v>732</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -5642,7 +5637,7 @@
         <v>45070</v>
       </c>
       <c r="B117" s="4">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -5650,7 +5645,7 @@
         <v>45071</v>
       </c>
       <c r="B118" s="4">
-        <v>605</v>
+        <v>928</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -5658,7 +5653,7 @@
         <v>45072</v>
       </c>
       <c r="B119" s="4">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -5666,7 +5661,7 @@
         <v>45073</v>
       </c>
       <c r="B120" s="4">
-        <v>170</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -5674,7 +5669,7 @@
         <v>45074</v>
       </c>
       <c r="B121" s="4">
-        <v>487</v>
+        <v>931</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -5682,7 +5677,7 @@
         <v>45075</v>
       </c>
       <c r="B122" s="4">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -5690,7 +5685,7 @@
         <v>45076</v>
       </c>
       <c r="B123" s="4">
-        <v>536</v>
+        <v>831</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -5698,7 +5693,7 @@
         <v>45077</v>
       </c>
       <c r="B124" s="4">
-        <v>664</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -5706,7 +5701,7 @@
         <v>45078</v>
       </c>
       <c r="B125" s="4">
-        <v>393</v>
+        <v>764</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -5714,7 +5709,7 @@
         <v>45079</v>
       </c>
       <c r="B126" s="4">
-        <v>625</v>
+        <v>758</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -5722,7 +5717,7 @@
         <v>45080</v>
       </c>
       <c r="B127" s="4">
-        <v>866</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -5730,7 +5725,7 @@
         <v>45081</v>
       </c>
       <c r="B128" s="4">
-        <v>304</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -5738,7 +5733,7 @@
         <v>45082</v>
       </c>
       <c r="B129" s="4">
-        <v>830</v>
+        <v>535</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -5746,7 +5741,7 @@
         <v>45083</v>
       </c>
       <c r="B130" s="4">
-        <v>438</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -5754,7 +5749,7 @@
         <v>45084</v>
       </c>
       <c r="B131" s="4">
-        <v>470</v>
+        <v>795</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -5762,7 +5757,7 @@
         <v>45085</v>
       </c>
       <c r="B132" s="4">
-        <v>543</v>
+        <v>980</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -5770,7 +5765,7 @@
         <v>45086</v>
       </c>
       <c r="B133" s="4">
-        <v>873</v>
+        <v>938</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -5778,7 +5773,7 @@
         <v>45087</v>
       </c>
       <c r="B134" s="4">
-        <v>655</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -5786,7 +5781,7 @@
         <v>45088</v>
       </c>
       <c r="B135" s="4">
-        <v>861</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -5794,7 +5789,7 @@
         <v>45089</v>
       </c>
       <c r="B136" s="4">
-        <v>197</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -5802,7 +5797,7 @@
         <v>45090</v>
       </c>
       <c r="B137" s="4">
-        <v>775</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -5810,7 +5805,7 @@
         <v>45091</v>
       </c>
       <c r="B138" s="4">
-        <v>437</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -5818,7 +5813,7 @@
         <v>45092</v>
       </c>
       <c r="B139" s="4">
-        <v>550</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -5826,7 +5821,7 @@
         <v>45093</v>
       </c>
       <c r="B140" s="4">
-        <v>699</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -5834,7 +5829,7 @@
         <v>45094</v>
       </c>
       <c r="B141" s="4">
-        <v>439</v>
+        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -5842,7 +5837,7 @@
         <v>45095</v>
       </c>
       <c r="B142" s="4">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -5850,7 +5845,7 @@
         <v>45096</v>
       </c>
       <c r="B143" s="4">
-        <v>236</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -5858,7 +5853,7 @@
         <v>45097</v>
       </c>
       <c r="B144" s="4">
-        <v>247</v>
+        <v>608</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -5866,7 +5861,7 @@
         <v>45098</v>
       </c>
       <c r="B145" s="4">
-        <v>919</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -5874,7 +5869,7 @@
         <v>45099</v>
       </c>
       <c r="B146" s="4">
-        <v>761</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -5882,7 +5877,7 @@
         <v>45100</v>
       </c>
       <c r="B147" s="4">
-        <v>942</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -5890,7 +5885,7 @@
         <v>45101</v>
       </c>
       <c r="B148" s="4">
-        <v>849</v>
+        <v>641</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -5898,7 +5893,7 @@
         <v>45102</v>
       </c>
       <c r="B149" s="4">
-        <v>505</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -5906,7 +5901,7 @@
         <v>45103</v>
       </c>
       <c r="B150" s="4">
-        <v>709</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -5914,7 +5909,7 @@
         <v>45104</v>
       </c>
       <c r="B151" s="4">
-        <v>281</v>
+        <v>789</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -5922,7 +5917,7 @@
         <v>45105</v>
       </c>
       <c r="B152" s="4">
-        <v>256</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -5930,7 +5925,7 @@
         <v>45106</v>
       </c>
       <c r="B153" s="4">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -5938,7 +5933,7 @@
         <v>45107</v>
       </c>
       <c r="B154" s="4">
-        <v>815</v>
+        <v>953</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -5946,7 +5941,7 @@
         <v>45108</v>
       </c>
       <c r="B155" s="4">
-        <v>548</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -5954,7 +5949,7 @@
         <v>45109</v>
       </c>
       <c r="B156" s="4">
-        <v>658</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -5962,7 +5957,7 @@
         <v>45110</v>
       </c>
       <c r="B157" s="4">
-        <v>674</v>
+        <v>826</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -5970,7 +5965,7 @@
         <v>45111</v>
       </c>
       <c r="B158" s="4">
-        <v>272</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -5978,7 +5973,7 @@
         <v>45112</v>
       </c>
       <c r="B159" s="4">
-        <v>134</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -5986,7 +5981,7 @@
         <v>45113</v>
       </c>
       <c r="B160" s="4">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -5994,7 +5989,7 @@
         <v>45114</v>
       </c>
       <c r="B161" s="4">
-        <v>476</v>
+        <v>865</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -6002,7 +5997,7 @@
         <v>45115</v>
       </c>
       <c r="B162" s="4">
-        <v>352</v>
+        <v>872</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -6010,7 +6005,7 @@
         <v>45116</v>
       </c>
       <c r="B163" s="4">
-        <v>350</v>
+        <v>955</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -6018,7 +6013,7 @@
         <v>45117</v>
       </c>
       <c r="B164" s="4">
-        <v>387</v>
+        <v>513</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -6026,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="B165" s="4">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -6034,7 +6029,7 @@
         <v>45119</v>
       </c>
       <c r="B166" s="4">
-        <v>491</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -6042,7 +6037,7 @@
         <v>45120</v>
       </c>
       <c r="B167" s="4">
-        <v>327</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -6050,7 +6045,7 @@
         <v>45121</v>
       </c>
       <c r="B168" s="4">
-        <v>227</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -6058,7 +6053,7 @@
         <v>45122</v>
       </c>
       <c r="B169" s="4">
-        <v>634</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -6066,7 +6061,7 @@
         <v>45123</v>
       </c>
       <c r="B170" s="4">
-        <v>327</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -6074,7 +6069,7 @@
         <v>45124</v>
       </c>
       <c r="B171" s="4">
-        <v>750</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -6082,7 +6077,7 @@
         <v>45125</v>
       </c>
       <c r="B172" s="4">
-        <v>775</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -6090,7 +6085,7 @@
         <v>45126</v>
       </c>
       <c r="B173" s="4">
-        <v>556</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -6098,7 +6093,7 @@
         <v>45127</v>
       </c>
       <c r="B174" s="4">
-        <v>425</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -6106,7 +6101,7 @@
         <v>45128</v>
       </c>
       <c r="B175" s="4">
-        <v>821</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -6114,7 +6109,7 @@
         <v>45129</v>
       </c>
       <c r="B176" s="4">
-        <v>865</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -6122,7 +6117,7 @@
         <v>45130</v>
       </c>
       <c r="B177" s="4">
-        <v>442</v>
+        <v>906</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -6130,7 +6125,7 @@
         <v>45131</v>
       </c>
       <c r="B178" s="4">
-        <v>388</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -6138,7 +6133,7 @@
         <v>45132</v>
       </c>
       <c r="B179" s="4">
-        <v>343</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -6146,7 +6141,7 @@
         <v>45133</v>
       </c>
       <c r="B180" s="4">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -6154,7 +6149,7 @@
         <v>45134</v>
       </c>
       <c r="B181" s="4">
-        <v>572</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -6162,7 +6157,7 @@
         <v>45135</v>
       </c>
       <c r="B182" s="4">
-        <v>235</v>
+        <v>710</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -6170,7 +6165,7 @@
         <v>45136</v>
       </c>
       <c r="B183" s="4">
-        <v>278</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -6178,7 +6173,7 @@
         <v>45137</v>
       </c>
       <c r="B184" s="4">
-        <v>443</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -6186,7 +6181,7 @@
         <v>45138</v>
       </c>
       <c r="B185" s="4">
-        <v>308</v>
+        <v>651</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -6194,7 +6189,7 @@
         <v>45139</v>
       </c>
       <c r="B186" s="4">
-        <v>147</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -6202,7 +6197,7 @@
         <v>45140</v>
       </c>
       <c r="B187" s="4">
-        <v>463</v>
+        <v>386</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -6210,7 +6205,7 @@
         <v>45141</v>
       </c>
       <c r="B188" s="4">
-        <v>218</v>
+        <v>957</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -6218,7 +6213,7 @@
         <v>45142</v>
       </c>
       <c r="B189" s="4">
-        <v>751</v>
+        <v>546</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -6226,7 +6221,7 @@
         <v>45143</v>
       </c>
       <c r="B190" s="4">
-        <v>410</v>
+        <v>913</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -6234,7 +6229,7 @@
         <v>45144</v>
       </c>
       <c r="B191" s="4">
-        <v>291</v>
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -6242,7 +6237,7 @@
         <v>45145</v>
       </c>
       <c r="B192" s="4">
-        <v>197</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -6250,7 +6245,7 @@
         <v>45146</v>
       </c>
       <c r="B193" s="4">
-        <v>997</v>
+        <v>291</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -6258,7 +6253,7 @@
         <v>45147</v>
       </c>
       <c r="B194" s="4">
-        <v>438</v>
+        <v>784</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -6266,7 +6261,7 @@
         <v>45148</v>
       </c>
       <c r="B195" s="4">
-        <v>233</v>
+        <v>966</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -6274,7 +6269,7 @@
         <v>45149</v>
       </c>
       <c r="B196" s="4">
-        <v>597</v>
+        <v>617</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -6282,7 +6277,7 @@
         <v>45150</v>
       </c>
       <c r="B197" s="4">
-        <v>384</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -6290,7 +6285,7 @@
         <v>45151</v>
       </c>
       <c r="B198" s="4">
-        <v>862</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -6298,7 +6293,7 @@
         <v>45152</v>
       </c>
       <c r="B199" s="4">
-        <v>815</v>
+        <v>844</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -6306,7 +6301,7 @@
         <v>45153</v>
       </c>
       <c r="B200" s="4">
-        <v>579</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -6314,7 +6309,7 @@
         <v>45154</v>
       </c>
       <c r="B201" s="4">
-        <v>212</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -6322,7 +6317,7 @@
         <v>45155</v>
       </c>
       <c r="B202" s="4">
-        <v>288</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -6330,7 +6325,7 @@
         <v>45156</v>
       </c>
       <c r="B203" s="4">
-        <v>806</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -6338,7 +6333,7 @@
         <v>45157</v>
       </c>
       <c r="B204" s="4">
-        <v>997</v>
+        <v>881</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -6346,7 +6341,7 @@
         <v>45158</v>
       </c>
       <c r="B205" s="4">
-        <v>888</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -6354,7 +6349,7 @@
         <v>45159</v>
       </c>
       <c r="B206" s="4">
-        <v>205</v>
+        <v>537</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -6362,7 +6357,7 @@
         <v>45160</v>
       </c>
       <c r="B207" s="4">
-        <v>309</v>
+        <v>716</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -6370,7 +6365,7 @@
         <v>45161</v>
       </c>
       <c r="B208" s="4">
-        <v>790</v>
+        <v>361</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -6378,7 +6373,7 @@
         <v>45162</v>
       </c>
       <c r="B209" s="4">
-        <v>128</v>
+        <v>626</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -6386,7 +6381,7 @@
         <v>45163</v>
       </c>
       <c r="B210" s="4">
-        <v>609</v>
+        <v>782</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -6394,7 +6389,7 @@
         <v>45164</v>
       </c>
       <c r="B211" s="4">
-        <v>857</v>
+        <v>459</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -6402,7 +6397,7 @@
         <v>45165</v>
       </c>
       <c r="B212" s="4">
-        <v>381</v>
+        <v>925</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -6410,7 +6405,7 @@
         <v>45166</v>
       </c>
       <c r="B213" s="4">
-        <v>656</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -6418,7 +6413,7 @@
         <v>45167</v>
       </c>
       <c r="B214" s="4">
-        <v>838</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -6426,7 +6421,7 @@
         <v>45168</v>
       </c>
       <c r="B215" s="4">
-        <v>222</v>
+        <v>699</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -6434,7 +6429,7 @@
         <v>45169</v>
       </c>
       <c r="B216" s="4">
-        <v>384</v>
+        <v>613</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -6442,7 +6437,7 @@
         <v>45170</v>
       </c>
       <c r="B217" s="4">
-        <v>844</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -6450,7 +6445,7 @@
         <v>45171</v>
       </c>
       <c r="B218" s="4">
-        <v>662</v>
+        <v>811</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -6458,7 +6453,7 @@
         <v>45172</v>
       </c>
       <c r="B219" s="4">
-        <v>500</v>
+        <v>333</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -6466,7 +6461,7 @@
         <v>45173</v>
       </c>
       <c r="B220" s="4">
-        <v>624</v>
+        <v>383</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -6474,7 +6469,7 @@
         <v>45174</v>
       </c>
       <c r="B221" s="4">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -6482,7 +6477,7 @@
         <v>45175</v>
       </c>
       <c r="B222" s="4">
-        <v>897</v>
+        <v>767</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -6490,7 +6485,7 @@
         <v>45176</v>
       </c>
       <c r="B223" s="4">
-        <v>338</v>
+        <v>198</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -6498,7 +6493,7 @@
         <v>45177</v>
       </c>
       <c r="B224" s="4">
-        <v>984</v>
+        <v>136</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -6506,7 +6501,7 @@
         <v>45178</v>
       </c>
       <c r="B225" s="4">
-        <v>350</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -6514,7 +6509,7 @@
         <v>45179</v>
       </c>
       <c r="B226" s="4">
-        <v>216</v>
+        <v>720</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -6522,7 +6517,7 @@
         <v>45180</v>
       </c>
       <c r="B227" s="4">
-        <v>288</v>
+        <v>511</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -6530,7 +6525,7 @@
         <v>45181</v>
       </c>
       <c r="B228" s="4">
-        <v>875</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -6538,7 +6533,7 @@
         <v>45182</v>
       </c>
       <c r="B229" s="4">
-        <v>982</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -6546,7 +6541,7 @@
         <v>45183</v>
       </c>
       <c r="B230" s="4">
-        <v>601</v>
+        <v>344</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -6554,7 +6549,7 @@
         <v>45184</v>
       </c>
       <c r="B231" s="4">
-        <v>768</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -6562,7 +6557,7 @@
         <v>45185</v>
       </c>
       <c r="B232" s="4">
-        <v>217</v>
+        <v>918</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -6570,7 +6565,7 @@
         <v>45186</v>
       </c>
       <c r="B233" s="4">
-        <v>129</v>
+        <v>930</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -6578,7 +6573,7 @@
         <v>45187</v>
       </c>
       <c r="B234" s="4">
-        <v>864</v>
+        <v>430</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -6586,7 +6581,7 @@
         <v>45188</v>
       </c>
       <c r="B235" s="4">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -6594,7 +6589,7 @@
         <v>45189</v>
       </c>
       <c r="B236" s="4">
-        <v>416</v>
+        <v>804</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -6602,7 +6597,7 @@
         <v>45190</v>
       </c>
       <c r="B237" s="4">
-        <v>794</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -6610,7 +6605,7 @@
         <v>45191</v>
       </c>
       <c r="B238" s="4">
-        <v>632</v>
+        <v>796</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -6618,7 +6613,7 @@
         <v>45192</v>
       </c>
       <c r="B239" s="4">
-        <v>327</v>
+        <v>197</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -6626,7 +6621,7 @@
         <v>45193</v>
       </c>
       <c r="B240" s="4">
-        <v>186</v>
+        <v>270</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -6634,7 +6629,7 @@
         <v>45194</v>
       </c>
       <c r="B241" s="4">
-        <v>424</v>
+        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -6642,7 +6637,7 @@
         <v>45195</v>
       </c>
       <c r="B242" s="4">
-        <v>942</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -6650,7 +6645,7 @@
         <v>45196</v>
       </c>
       <c r="B243" s="4">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -6658,7 +6653,7 @@
         <v>45197</v>
       </c>
       <c r="B244" s="4">
-        <v>271</v>
+        <v>640</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -6666,7 +6661,7 @@
         <v>45198</v>
       </c>
       <c r="B245" s="4">
-        <v>991</v>
+        <v>701</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -6674,7 +6669,7 @@
         <v>45199</v>
       </c>
       <c r="B246" s="4">
-        <v>626</v>
+        <v>105</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -6682,7 +6677,7 @@
         <v>45200</v>
       </c>
       <c r="B247" s="4">
-        <v>859</v>
+        <v>824</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -6690,7 +6685,7 @@
         <v>45201</v>
       </c>
       <c r="B248" s="4">
-        <v>653</v>
+        <v>970</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -6698,7 +6693,7 @@
         <v>45202</v>
       </c>
       <c r="B249" s="4">
-        <v>583</v>
+        <v>881</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -6706,7 +6701,7 @@
         <v>45203</v>
       </c>
       <c r="B250" s="4">
-        <v>557</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -6714,7 +6709,7 @@
         <v>45204</v>
       </c>
       <c r="B251" s="4">
-        <v>271</v>
+        <v>877</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -6722,7 +6717,7 @@
         <v>45205</v>
       </c>
       <c r="B252" s="4">
-        <v>154</v>
+        <v>983</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -6730,7 +6725,7 @@
         <v>45206</v>
       </c>
       <c r="B253" s="4">
-        <v>215</v>
+        <v>356</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -6738,7 +6733,7 @@
         <v>45207</v>
       </c>
       <c r="B254" s="4">
-        <v>834</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -6746,7 +6741,7 @@
         <v>45208</v>
       </c>
       <c r="B255" s="4">
-        <v>931</v>
+        <v>783</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -6754,7 +6749,7 @@
         <v>45209</v>
       </c>
       <c r="B256" s="4">
-        <v>626</v>
+        <v>695</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -6762,7 +6757,7 @@
         <v>45210</v>
       </c>
       <c r="B257" s="4">
-        <v>260</v>
+        <v>789</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -6770,7 +6765,7 @@
         <v>45211</v>
       </c>
       <c r="B258" s="4">
-        <v>534</v>
+        <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -6778,7 +6773,7 @@
         <v>45212</v>
       </c>
       <c r="B259" s="4">
-        <v>316</v>
+        <v>773</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -6786,7 +6781,7 @@
         <v>45213</v>
       </c>
       <c r="B260" s="4">
-        <v>162</v>
+        <v>887</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -6794,7 +6789,7 @@
         <v>45214</v>
       </c>
       <c r="B261" s="4">
-        <v>323</v>
+        <v>845</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -6802,7 +6797,7 @@
         <v>45215</v>
       </c>
       <c r="B262" s="4">
-        <v>939</v>
+        <v>383</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -6810,7 +6805,7 @@
         <v>45216</v>
       </c>
       <c r="B263" s="4">
-        <v>706</v>
+        <v>463</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -6818,7 +6813,7 @@
         <v>45217</v>
       </c>
       <c r="B264" s="4">
-        <v>888</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -6826,7 +6821,7 @@
         <v>45218</v>
       </c>
       <c r="B265" s="4">
-        <v>667</v>
+        <v>752</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -6834,7 +6829,7 @@
         <v>45219</v>
       </c>
       <c r="B266" s="4">
-        <v>272</v>
+        <v>970</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -6842,7 +6837,7 @@
         <v>45220</v>
       </c>
       <c r="B267" s="4">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -6850,7 +6845,7 @@
         <v>45221</v>
       </c>
       <c r="B268" s="4">
-        <v>445</v>
+        <v>970</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -6858,7 +6853,7 @@
         <v>45222</v>
       </c>
       <c r="B269" s="4">
-        <v>506</v>
+        <v>383</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -6866,7 +6861,7 @@
         <v>45223</v>
       </c>
       <c r="B270" s="4">
-        <v>259</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -6874,7 +6869,7 @@
         <v>45224</v>
       </c>
       <c r="B271" s="4">
-        <v>418</v>
+        <v>706</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
@@ -6882,7 +6877,7 @@
         <v>45225</v>
       </c>
       <c r="B272" s="4">
-        <v>963</v>
+        <v>908</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
@@ -6890,7 +6885,7 @@
         <v>45226</v>
       </c>
       <c r="B273" s="4">
-        <v>503</v>
+        <v>592</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -6898,7 +6893,7 @@
         <v>45227</v>
       </c>
       <c r="B274" s="4">
-        <v>915</v>
+        <v>698</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -6906,7 +6901,7 @@
         <v>45228</v>
       </c>
       <c r="B275" s="4">
-        <v>304</v>
+        <v>682</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
@@ -6914,7 +6909,7 @@
         <v>45229</v>
       </c>
       <c r="B276" s="4">
-        <v>557</v>
+        <v>468</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -6922,7 +6917,7 @@
         <v>45230</v>
       </c>
       <c r="B277" s="4">
-        <v>355</v>
+        <v>133</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -6930,7 +6925,7 @@
         <v>45231</v>
       </c>
       <c r="B278" s="4">
-        <v>996</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -6938,7 +6933,7 @@
         <v>45232</v>
       </c>
       <c r="B279" s="4">
-        <v>331</v>
+        <v>844</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -6946,7 +6941,7 @@
         <v>45233</v>
       </c>
       <c r="B280" s="4">
-        <v>411</v>
+        <v>234</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -6954,7 +6949,7 @@
         <v>45234</v>
       </c>
       <c r="B281" s="4">
-        <v>382</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -6962,7 +6957,7 @@
         <v>45235</v>
       </c>
       <c r="B282" s="4">
-        <v>965</v>
+        <v>160</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -6970,7 +6965,7 @@
         <v>45236</v>
       </c>
       <c r="B283" s="4">
-        <v>221</v>
+        <v>824</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -6978,7 +6973,7 @@
         <v>45237</v>
       </c>
       <c r="B284" s="4">
-        <v>418</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -6986,7 +6981,7 @@
         <v>45238</v>
       </c>
       <c r="B285" s="4">
-        <v>538</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -6994,7 +6989,7 @@
         <v>45239</v>
       </c>
       <c r="B286" s="4">
-        <v>697</v>
+        <v>670</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -7002,7 +6997,7 @@
         <v>45240</v>
       </c>
       <c r="B287" s="4">
-        <v>485</v>
+        <v>113</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -7010,7 +7005,7 @@
         <v>45241</v>
       </c>
       <c r="B288" s="4">
-        <v>497</v>
+        <v>653</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -7018,7 +7013,7 @@
         <v>45242</v>
       </c>
       <c r="B289" s="4">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -7026,7 +7021,7 @@
         <v>45243</v>
       </c>
       <c r="B290" s="4">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
@@ -7034,7 +7029,7 @@
         <v>45244</v>
       </c>
       <c r="B291" s="4">
-        <v>331</v>
+        <v>527</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -7042,7 +7037,7 @@
         <v>45245</v>
       </c>
       <c r="B292" s="4">
-        <v>651</v>
+        <v>803</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -7050,7 +7045,7 @@
         <v>45246</v>
       </c>
       <c r="B293" s="4">
-        <v>655</v>
+        <v>525</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -7058,7 +7053,7 @@
         <v>45247</v>
       </c>
       <c r="B294" s="4">
-        <v>600</v>
+        <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -7066,7 +7061,7 @@
         <v>45248</v>
       </c>
       <c r="B295" s="4">
-        <v>994</v>
+        <v>545</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -7074,7 +7069,7 @@
         <v>45249</v>
       </c>
       <c r="B296" s="4">
-        <v>553</v>
+        <v>153</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -7082,7 +7077,7 @@
         <v>45250</v>
       </c>
       <c r="B297" s="4">
-        <v>665</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -7090,7 +7085,7 @@
         <v>45251</v>
       </c>
       <c r="B298" s="4">
-        <v>332</v>
+        <v>891</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -7098,7 +7093,7 @@
         <v>45252</v>
       </c>
       <c r="B299" s="4">
-        <v>544</v>
+        <v>962</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -7106,7 +7101,7 @@
         <v>45253</v>
       </c>
       <c r="B300" s="4">
-        <v>883</v>
+        <v>578</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -7114,7 +7109,7 @@
         <v>45254</v>
       </c>
       <c r="B301" s="4">
-        <v>750</v>
+        <v>220</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -7122,7 +7117,7 @@
         <v>45255</v>
       </c>
       <c r="B302" s="4">
-        <v>425</v>
+        <v>137</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -7130,7 +7125,7 @@
         <v>45256</v>
       </c>
       <c r="B303" s="4">
-        <v>715</v>
+        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
@@ -7138,7 +7133,7 @@
         <v>45257</v>
       </c>
       <c r="B304" s="4">
-        <v>441</v>
+        <v>512</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
@@ -7146,7 +7141,7 @@
         <v>45258</v>
       </c>
       <c r="B305" s="4">
-        <v>549</v>
+        <v>409</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -7154,7 +7149,7 @@
         <v>45259</v>
       </c>
       <c r="B306" s="4">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
@@ -7162,7 +7157,7 @@
         <v>45260</v>
       </c>
       <c r="B307" s="4">
-        <v>971</v>
+        <v>840</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -7170,7 +7165,7 @@
         <v>45261</v>
       </c>
       <c r="B308" s="4">
-        <v>352</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
@@ -7178,7 +7173,7 @@
         <v>45262</v>
       </c>
       <c r="B309" s="4">
-        <v>252</v>
+        <v>900</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
@@ -7186,7 +7181,7 @@
         <v>45263</v>
       </c>
       <c r="B310" s="4">
-        <v>637</v>
+        <v>853</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
@@ -7194,7 +7189,7 @@
         <v>45264</v>
       </c>
       <c r="B311" s="4">
-        <v>776</v>
+        <v>166</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
@@ -7202,7 +7197,7 @@
         <v>45265</v>
       </c>
       <c r="B312" s="4">
-        <v>336</v>
+        <v>528</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
@@ -7210,7 +7205,7 @@
         <v>45266</v>
       </c>
       <c r="B313" s="4">
-        <v>543</v>
+        <v>685</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
@@ -7218,7 +7213,7 @@
         <v>45267</v>
       </c>
       <c r="B314" s="4">
-        <v>111</v>
+        <v>975</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
@@ -7226,7 +7221,7 @@
         <v>45268</v>
       </c>
       <c r="B315" s="4">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -7234,7 +7229,7 @@
         <v>45269</v>
       </c>
       <c r="B316" s="4">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
@@ -7242,7 +7237,7 @@
         <v>45270</v>
       </c>
       <c r="B317" s="4">
-        <v>243</v>
+        <v>997</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -7250,7 +7245,7 @@
         <v>45271</v>
       </c>
       <c r="B318" s="4">
-        <v>753</v>
+        <v>713</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -7258,7 +7253,7 @@
         <v>45272</v>
       </c>
       <c r="B319" s="4">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
@@ -7266,7 +7261,7 @@
         <v>45273</v>
       </c>
       <c r="B320" s="4">
-        <v>667</v>
+        <v>617</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
@@ -7274,7 +7269,7 @@
         <v>45274</v>
       </c>
       <c r="B321" s="4">
-        <v>155</v>
+        <v>869</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
@@ -7282,7 +7277,7 @@
         <v>45275</v>
       </c>
       <c r="B322" s="4">
-        <v>812</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
@@ -7290,7 +7285,7 @@
         <v>45276</v>
       </c>
       <c r="B323" s="4">
-        <v>697</v>
+        <v>591</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
@@ -7298,7 +7293,7 @@
         <v>45277</v>
       </c>
       <c r="B324" s="4">
-        <v>785</v>
+        <v>976</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
@@ -7306,7 +7301,7 @@
         <v>45278</v>
       </c>
       <c r="B325" s="4">
-        <v>899</v>
+        <v>745</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -7314,7 +7309,7 @@
         <v>45279</v>
       </c>
       <c r="B326" s="4">
-        <v>591</v>
+        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
@@ -7322,7 +7317,7 @@
         <v>45280</v>
       </c>
       <c r="B327" s="4">
-        <v>529</v>
+        <v>608</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
@@ -7330,7 +7325,7 @@
         <v>45281</v>
       </c>
       <c r="B328" s="4">
-        <v>506</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
@@ -7338,7 +7333,7 @@
         <v>45282</v>
       </c>
       <c r="B329" s="4">
-        <v>314</v>
+        <v>857</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
@@ -7346,7 +7341,7 @@
         <v>45283</v>
       </c>
       <c r="B330" s="4">
-        <v>188</v>
+        <v>605</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
@@ -7354,7 +7349,7 @@
         <v>45284</v>
       </c>
       <c r="B331" s="4">
-        <v>497</v>
+        <v>538</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -7362,7 +7357,7 @@
         <v>45285</v>
       </c>
       <c r="B332" s="4">
-        <v>810</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -7370,7 +7365,7 @@
         <v>45286</v>
       </c>
       <c r="B333" s="4">
-        <v>674</v>
+        <v>124</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -7378,7 +7373,7 @@
         <v>45287</v>
       </c>
       <c r="B334" s="4">
-        <v>902</v>
+        <v>989</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -7386,7 +7381,7 @@
         <v>45288</v>
       </c>
       <c r="B335" s="4">
-        <v>788</v>
+        <v>603</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -7394,7 +7389,7 @@
         <v>45289</v>
       </c>
       <c r="B336" s="4">
-        <v>289</v>
+        <v>817</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -7402,7 +7397,7 @@
         <v>45290</v>
       </c>
       <c r="B337" s="4">
-        <v>663</v>
+        <v>696</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
@@ -7410,7 +7405,7 @@
         <v>3</v>
       </c>
       <c r="B338" s="4">
-        <v>199012</v>
+        <v>198664</v>
       </c>
     </row>
   </sheetData>
@@ -7439,7 +7434,7 @@
         <v>44927</v>
       </c>
       <c r="B2">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7447,7 +7442,7 @@
         <v>44928</v>
       </c>
       <c r="B3">
-        <v>342</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7455,7 +7450,7 @@
         <v>44929</v>
       </c>
       <c r="B4">
-        <v>967</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -7463,7 +7458,7 @@
         <v>44930</v>
       </c>
       <c r="B5">
-        <v>644</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -7471,7 +7466,7 @@
         <v>44931</v>
       </c>
       <c r="B6">
-        <v>597</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -7479,7 +7474,7 @@
         <v>44932</v>
       </c>
       <c r="B7">
-        <v>975</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7487,7 +7482,7 @@
         <v>44933</v>
       </c>
       <c r="B8">
-        <v>984</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7495,7 +7490,7 @@
         <v>44934</v>
       </c>
       <c r="B9">
-        <v>629</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7503,7 +7498,7 @@
         <v>44935</v>
       </c>
       <c r="B10">
-        <v>285</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7511,7 +7506,7 @@
         <v>44936</v>
       </c>
       <c r="B11">
-        <v>895</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7519,7 +7514,7 @@
         <v>44937</v>
       </c>
       <c r="B12">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -7527,7 +7522,7 @@
         <v>44938</v>
       </c>
       <c r="B13">
-        <v>309</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -7535,7 +7530,7 @@
         <v>44939</v>
       </c>
       <c r="B14">
-        <v>885</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7543,7 +7538,7 @@
         <v>44940</v>
       </c>
       <c r="B15">
-        <v>232</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -7551,7 +7546,7 @@
         <v>44941</v>
       </c>
       <c r="B16">
-        <v>240</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7559,7 +7554,7 @@
         <v>44942</v>
       </c>
       <c r="B17">
-        <v>464</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7567,7 +7562,7 @@
         <v>44943</v>
       </c>
       <c r="B18">
-        <v>504</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -7575,7 +7570,7 @@
         <v>44944</v>
       </c>
       <c r="B19">
-        <v>989</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -7583,7 +7578,7 @@
         <v>44945</v>
       </c>
       <c r="B20">
-        <v>677</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -7591,7 +7586,7 @@
         <v>44946</v>
       </c>
       <c r="B21">
-        <v>802</v>
+        <v>946</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -7599,7 +7594,7 @@
         <v>44947</v>
       </c>
       <c r="B22">
-        <v>661</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -7607,7 +7602,7 @@
         <v>44948</v>
       </c>
       <c r="B23">
-        <v>140</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -7615,7 +7610,7 @@
         <v>44949</v>
       </c>
       <c r="B24">
-        <v>256</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7623,7 +7618,7 @@
         <v>44950</v>
       </c>
       <c r="B25">
-        <v>593</v>
+        <v>754</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -7631,7 +7626,7 @@
         <v>44951</v>
       </c>
       <c r="B26">
-        <v>449</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -7639,7 +7634,7 @@
         <v>44952</v>
       </c>
       <c r="B27">
-        <v>710</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -7647,7 +7642,7 @@
         <v>44953</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -7655,7 +7650,7 @@
         <v>44954</v>
       </c>
       <c r="B29">
-        <v>886</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -7663,7 +7658,7 @@
         <v>44955</v>
       </c>
       <c r="B30">
-        <v>585</v>
+        <v>957</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7671,7 +7666,7 @@
         <v>44956</v>
       </c>
       <c r="B31">
-        <v>398</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -7679,7 +7674,7 @@
         <v>44957</v>
       </c>
       <c r="B32">
-        <v>291</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -7687,7 +7682,7 @@
         <v>44958</v>
       </c>
       <c r="B33">
-        <v>799</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -7695,7 +7690,7 @@
         <v>44959</v>
       </c>
       <c r="B34">
-        <v>517</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -7703,7 +7698,7 @@
         <v>44960</v>
       </c>
       <c r="B35">
-        <v>748</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -7711,7 +7706,7 @@
         <v>44961</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -7719,7 +7714,7 @@
         <v>44962</v>
       </c>
       <c r="B37">
-        <v>665</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -7727,7 +7722,7 @@
         <v>44963</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7735,7 +7730,7 @@
         <v>44964</v>
       </c>
       <c r="B39">
-        <v>869</v>
+        <v>794</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -7743,7 +7738,7 @@
         <v>44965</v>
       </c>
       <c r="B40">
-        <v>628</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -7751,7 +7746,7 @@
         <v>44966</v>
       </c>
       <c r="B41">
-        <v>359</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -7759,7 +7754,7 @@
         <v>44967</v>
       </c>
       <c r="B42">
-        <v>803</v>
+        <v>918</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -7767,7 +7762,7 @@
         <v>44968</v>
       </c>
       <c r="B43">
-        <v>118</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -7775,7 +7770,7 @@
         <v>44969</v>
       </c>
       <c r="B44">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -7783,7 +7778,7 @@
         <v>44970</v>
       </c>
       <c r="B45">
-        <v>745</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -7791,7 +7786,7 @@
         <v>44971</v>
       </c>
       <c r="B46">
-        <v>546</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -7799,7 +7794,7 @@
         <v>44972</v>
       </c>
       <c r="B47">
-        <v>294</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -7807,7 +7802,7 @@
         <v>44973</v>
       </c>
       <c r="B48">
-        <v>413</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -7815,7 +7810,7 @@
         <v>44974</v>
       </c>
       <c r="B49">
-        <v>469</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7823,7 +7818,7 @@
         <v>44975</v>
       </c>
       <c r="B50">
-        <v>515</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -7831,7 +7826,7 @@
         <v>44976</v>
       </c>
       <c r="B51">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -7839,7 +7834,7 @@
         <v>44977</v>
       </c>
       <c r="B52">
-        <v>396</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -7847,7 +7842,7 @@
         <v>44978</v>
       </c>
       <c r="B53">
-        <v>973</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -7855,7 +7850,7 @@
         <v>44979</v>
       </c>
       <c r="B54">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -7863,7 +7858,7 @@
         <v>44980</v>
       </c>
       <c r="B55">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7871,7 +7866,7 @@
         <v>44981</v>
       </c>
       <c r="B56">
-        <v>894</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -7879,7 +7874,7 @@
         <v>44982</v>
       </c>
       <c r="B57">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -7887,7 +7882,7 @@
         <v>44983</v>
       </c>
       <c r="B58">
-        <v>586</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7895,7 +7890,7 @@
         <v>44984</v>
       </c>
       <c r="B59">
-        <v>389</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -7903,7 +7898,7 @@
         <v>44985</v>
       </c>
       <c r="B60">
-        <v>711</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7911,7 +7906,7 @@
         <v>44986</v>
       </c>
       <c r="B61">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -7919,7 +7914,7 @@
         <v>44987</v>
       </c>
       <c r="B62">
-        <v>433</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -7927,7 +7922,7 @@
         <v>44988</v>
       </c>
       <c r="B63">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -7935,7 +7930,7 @@
         <v>44989</v>
       </c>
       <c r="B64">
-        <v>539</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -7943,7 +7938,7 @@
         <v>44990</v>
       </c>
       <c r="B65">
-        <v>445</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -7951,7 +7946,7 @@
         <v>44991</v>
       </c>
       <c r="B66">
-        <v>533</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -7959,7 +7954,7 @@
         <v>44992</v>
       </c>
       <c r="B67">
-        <v>399</v>
+        <v>881</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -7967,7 +7962,7 @@
         <v>44993</v>
       </c>
       <c r="B68">
-        <v>149</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -7975,7 +7970,7 @@
         <v>44994</v>
       </c>
       <c r="B69">
-        <v>983</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -7983,7 +7978,7 @@
         <v>44995</v>
       </c>
       <c r="B70">
-        <v>899</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -7991,7 +7986,7 @@
         <v>44996</v>
       </c>
       <c r="B71">
-        <v>354</v>
+        <v>977</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -7999,7 +7994,7 @@
         <v>44997</v>
       </c>
       <c r="B72">
-        <v>796</v>
+        <v>819</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -8007,7 +8002,7 @@
         <v>44998</v>
       </c>
       <c r="B73">
-        <v>351</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -8015,7 +8010,7 @@
         <v>44999</v>
       </c>
       <c r="B74">
-        <v>513</v>
+        <v>804</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -8023,7 +8018,7 @@
         <v>45000</v>
       </c>
       <c r="B75">
-        <v>777</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -8031,7 +8026,7 @@
         <v>45001</v>
       </c>
       <c r="B76">
-        <v>646</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -8039,7 +8034,7 @@
         <v>45002</v>
       </c>
       <c r="B77">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -8047,7 +8042,7 @@
         <v>45003</v>
       </c>
       <c r="B78">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -8055,7 +8050,7 @@
         <v>45004</v>
       </c>
       <c r="B79">
-        <v>538</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -8063,7 +8058,7 @@
         <v>45005</v>
       </c>
       <c r="B80">
-        <v>707</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8071,7 +8066,7 @@
         <v>45006</v>
       </c>
       <c r="B81">
-        <v>448</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8079,7 +8074,7 @@
         <v>45007</v>
       </c>
       <c r="B82">
-        <v>707</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8087,7 +8082,7 @@
         <v>45008</v>
       </c>
       <c r="B83">
-        <v>298</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8095,7 +8090,7 @@
         <v>45009</v>
       </c>
       <c r="B84">
-        <v>574</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8103,7 +8098,7 @@
         <v>45010</v>
       </c>
       <c r="B85">
-        <v>619</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8111,7 +8106,7 @@
         <v>45011</v>
       </c>
       <c r="B86">
-        <v>391</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8119,7 +8114,7 @@
         <v>45012</v>
       </c>
       <c r="B87">
-        <v>575</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -8127,7 +8122,7 @@
         <v>45013</v>
       </c>
       <c r="B88">
-        <v>667</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -8135,7 +8130,7 @@
         <v>45014</v>
       </c>
       <c r="B89">
-        <v>736</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -8143,7 +8138,7 @@
         <v>45015</v>
       </c>
       <c r="B90">
-        <v>432</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -8151,7 +8146,7 @@
         <v>45016</v>
       </c>
       <c r="B91">
-        <v>555</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -8159,7 +8154,7 @@
         <v>45017</v>
       </c>
       <c r="B92">
-        <v>243</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8167,7 +8162,7 @@
         <v>45018</v>
       </c>
       <c r="B93">
-        <v>764</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -8175,7 +8170,7 @@
         <v>45019</v>
       </c>
       <c r="B94">
-        <v>293</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -8183,7 +8178,7 @@
         <v>45020</v>
       </c>
       <c r="B95">
-        <v>580</v>
+        <v>894</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -8191,7 +8186,7 @@
         <v>45021</v>
       </c>
       <c r="B96">
-        <v>302</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8199,7 +8194,7 @@
         <v>45022</v>
       </c>
       <c r="B97">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -8207,7 +8202,7 @@
         <v>45023</v>
       </c>
       <c r="B98">
-        <v>357</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -8215,7 +8210,7 @@
         <v>45024</v>
       </c>
       <c r="B99">
-        <v>874</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -8223,7 +8218,7 @@
         <v>45025</v>
       </c>
       <c r="B100">
-        <v>119</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -8231,7 +8226,7 @@
         <v>45026</v>
       </c>
       <c r="B101">
-        <v>206</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -8239,7 +8234,7 @@
         <v>45027</v>
       </c>
       <c r="B102">
-        <v>526</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -8247,7 +8242,7 @@
         <v>45028</v>
       </c>
       <c r="B103">
-        <v>872</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -8255,7 +8250,7 @@
         <v>45029</v>
       </c>
       <c r="B104">
-        <v>796</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -8263,7 +8258,7 @@
         <v>45030</v>
       </c>
       <c r="B105">
-        <v>656</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -8271,7 +8266,7 @@
         <v>45031</v>
       </c>
       <c r="B106">
-        <v>990</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -8279,7 +8274,7 @@
         <v>45032</v>
       </c>
       <c r="B107">
-        <v>497</v>
+        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -8287,7 +8282,7 @@
         <v>45033</v>
       </c>
       <c r="B108">
-        <v>921</v>
+        <v>696</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -8295,7 +8290,7 @@
         <v>45034</v>
       </c>
       <c r="B109">
-        <v>573</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -8303,7 +8298,7 @@
         <v>45035</v>
       </c>
       <c r="B110">
-        <v>185</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -8311,7 +8306,7 @@
         <v>45036</v>
       </c>
       <c r="B111">
-        <v>468</v>
+        <v>826</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -8319,7 +8314,7 @@
         <v>45037</v>
       </c>
       <c r="B112">
-        <v>822</v>
+        <v>913</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -8327,7 +8322,7 @@
         <v>45038</v>
       </c>
       <c r="B113">
-        <v>677</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -8335,7 +8330,7 @@
         <v>45039</v>
       </c>
       <c r="B114">
-        <v>780</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -8343,7 +8338,7 @@
         <v>45040</v>
       </c>
       <c r="B115">
-        <v>808</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -8351,7 +8346,7 @@
         <v>45041</v>
       </c>
       <c r="B116">
-        <v>197</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -8359,7 +8354,7 @@
         <v>45042</v>
       </c>
       <c r="B117">
-        <v>399</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -8367,7 +8362,7 @@
         <v>45043</v>
       </c>
       <c r="B118">
-        <v>847</v>
+        <v>688</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -8375,7 +8370,7 @@
         <v>45044</v>
       </c>
       <c r="B119">
-        <v>114</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -8383,7 +8378,7 @@
         <v>45045</v>
       </c>
       <c r="B120">
-        <v>719</v>
+        <v>821</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -8391,7 +8386,7 @@
         <v>45046</v>
       </c>
       <c r="B121">
-        <v>116</v>
+        <v>790</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -8399,7 +8394,7 @@
         <v>45047</v>
       </c>
       <c r="B122">
-        <v>356</v>
+        <v>927</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -8407,7 +8402,7 @@
         <v>45048</v>
       </c>
       <c r="B123">
-        <v>305</v>
+        <v>591</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -8415,7 +8410,7 @@
         <v>45049</v>
       </c>
       <c r="B124">
-        <v>783</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -8423,7 +8418,7 @@
         <v>45050</v>
       </c>
       <c r="B125">
-        <v>397</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -8431,7 +8426,7 @@
         <v>45051</v>
       </c>
       <c r="B126">
-        <v>936</v>
+        <v>917</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -8439,7 +8434,7 @@
         <v>45052</v>
       </c>
       <c r="B127">
-        <v>891</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -8447,7 +8442,7 @@
         <v>45053</v>
       </c>
       <c r="B128">
-        <v>847</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -8455,7 +8450,7 @@
         <v>45054</v>
       </c>
       <c r="B129">
-        <v>163</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -8463,7 +8458,7 @@
         <v>45055</v>
       </c>
       <c r="B130">
-        <v>258</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -8471,7 +8466,7 @@
         <v>45056</v>
       </c>
       <c r="B131">
-        <v>560</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -8479,7 +8474,7 @@
         <v>45057</v>
       </c>
       <c r="B132">
-        <v>222</v>
+        <v>759</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -8487,7 +8482,7 @@
         <v>45058</v>
       </c>
       <c r="B133">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -8495,7 +8490,7 @@
         <v>45059</v>
       </c>
       <c r="B134">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -8503,7 +8498,7 @@
         <v>45060</v>
       </c>
       <c r="B135">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -8511,7 +8506,7 @@
         <v>45061</v>
       </c>
       <c r="B136">
-        <v>938</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -8519,7 +8514,7 @@
         <v>45062</v>
       </c>
       <c r="B137">
-        <v>632</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -8527,7 +8522,7 @@
         <v>45063</v>
       </c>
       <c r="B138">
-        <v>308</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -8535,7 +8530,7 @@
         <v>45064</v>
       </c>
       <c r="B139">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -8543,7 +8538,7 @@
         <v>45065</v>
       </c>
       <c r="B140">
-        <v>935</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -8551,7 +8546,7 @@
         <v>45066</v>
       </c>
       <c r="B141">
-        <v>619</v>
+        <v>843</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -8559,7 +8554,7 @@
         <v>45067</v>
       </c>
       <c r="B142">
-        <v>898</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -8567,7 +8562,7 @@
         <v>45068</v>
       </c>
       <c r="B143">
-        <v>911</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -8575,7 +8570,7 @@
         <v>45069</v>
       </c>
       <c r="B144">
-        <v>272</v>
+        <v>732</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -8583,7 +8578,7 @@
         <v>45070</v>
       </c>
       <c r="B145">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -8591,7 +8586,7 @@
         <v>45071</v>
       </c>
       <c r="B146">
-        <v>605</v>
+        <v>928</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -8599,7 +8594,7 @@
         <v>45072</v>
       </c>
       <c r="B147">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -8607,7 +8602,7 @@
         <v>45073</v>
       </c>
       <c r="B148">
-        <v>170</v>
+        <v>891</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -8615,7 +8610,7 @@
         <v>45074</v>
       </c>
       <c r="B149">
-        <v>487</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -8623,7 +8618,7 @@
         <v>45075</v>
       </c>
       <c r="B150">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -8631,7 +8626,7 @@
         <v>45076</v>
       </c>
       <c r="B151">
-        <v>536</v>
+        <v>831</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -8639,7 +8634,7 @@
         <v>45077</v>
       </c>
       <c r="B152">
-        <v>664</v>
+        <v>775</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -8647,7 +8642,7 @@
         <v>45078</v>
       </c>
       <c r="B153">
-        <v>393</v>
+        <v>764</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -8655,7 +8650,7 @@
         <v>45079</v>
       </c>
       <c r="B154">
-        <v>625</v>
+        <v>758</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -8663,7 +8658,7 @@
         <v>45080</v>
       </c>
       <c r="B155">
-        <v>866</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -8671,7 +8666,7 @@
         <v>45081</v>
       </c>
       <c r="B156">
-        <v>304</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -8679,7 +8674,7 @@
         <v>45082</v>
       </c>
       <c r="B157">
-        <v>830</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -8687,7 +8682,7 @@
         <v>45083</v>
       </c>
       <c r="B158">
-        <v>438</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -8695,7 +8690,7 @@
         <v>45084</v>
       </c>
       <c r="B159">
-        <v>470</v>
+        <v>795</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -8703,7 +8698,7 @@
         <v>45085</v>
       </c>
       <c r="B160">
-        <v>543</v>
+        <v>980</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -8711,7 +8706,7 @@
         <v>45086</v>
       </c>
       <c r="B161">
-        <v>873</v>
+        <v>938</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -8719,7 +8714,7 @@
         <v>45087</v>
       </c>
       <c r="B162">
-        <v>655</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -8727,7 +8722,7 @@
         <v>45088</v>
       </c>
       <c r="B163">
-        <v>861</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -8735,7 +8730,7 @@
         <v>45089</v>
       </c>
       <c r="B164">
-        <v>197</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -8743,7 +8738,7 @@
         <v>45090</v>
       </c>
       <c r="B165">
-        <v>775</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -8751,7 +8746,7 @@
         <v>45091</v>
       </c>
       <c r="B166">
-        <v>437</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -8759,7 +8754,7 @@
         <v>45092</v>
       </c>
       <c r="B167">
-        <v>550</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -8767,7 +8762,7 @@
         <v>45093</v>
       </c>
       <c r="B168">
-        <v>699</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -8775,7 +8770,7 @@
         <v>45094</v>
       </c>
       <c r="B169">
-        <v>439</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -8783,7 +8778,7 @@
         <v>45095</v>
       </c>
       <c r="B170">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -8791,7 +8786,7 @@
         <v>45096</v>
       </c>
       <c r="B171">
-        <v>236</v>
+        <v>634</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -8799,7 +8794,7 @@
         <v>45097</v>
       </c>
       <c r="B172">
-        <v>247</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -8807,7 +8802,7 @@
         <v>45098</v>
       </c>
       <c r="B173">
-        <v>919</v>
+        <v>689</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -8815,7 +8810,7 @@
         <v>45099</v>
       </c>
       <c r="B174">
-        <v>761</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -8823,7 +8818,7 @@
         <v>45100</v>
       </c>
       <c r="B175">
-        <v>942</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -8831,7 +8826,7 @@
         <v>45101</v>
       </c>
       <c r="B176">
-        <v>849</v>
+        <v>641</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -8839,7 +8834,7 @@
         <v>45102</v>
       </c>
       <c r="B177">
-        <v>505</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -8847,7 +8842,7 @@
         <v>45103</v>
       </c>
       <c r="B178">
-        <v>709</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -8855,7 +8850,7 @@
         <v>45104</v>
       </c>
       <c r="B179">
-        <v>281</v>
+        <v>789</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -8863,7 +8858,7 @@
         <v>45105</v>
       </c>
       <c r="B180">
-        <v>256</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -8871,7 +8866,7 @@
         <v>45106</v>
       </c>
       <c r="B181">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -8879,7 +8874,7 @@
         <v>45107</v>
       </c>
       <c r="B182">
-        <v>815</v>
+        <v>953</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -8887,7 +8882,7 @@
         <v>45108</v>
       </c>
       <c r="B183">
-        <v>548</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -8895,7 +8890,7 @@
         <v>45109</v>
       </c>
       <c r="B184">
-        <v>658</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -8903,7 +8898,7 @@
         <v>45110</v>
       </c>
       <c r="B185">
-        <v>674</v>
+        <v>826</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -8911,7 +8906,7 @@
         <v>45111</v>
       </c>
       <c r="B186">
-        <v>272</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -8919,7 +8914,7 @@
         <v>45112</v>
       </c>
       <c r="B187">
-        <v>134</v>
+        <v>463</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -8927,7 +8922,7 @@
         <v>45113</v>
       </c>
       <c r="B188">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -8935,7 +8930,7 @@
         <v>45114</v>
       </c>
       <c r="B189">
-        <v>476</v>
+        <v>865</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -8943,7 +8938,7 @@
         <v>45115</v>
       </c>
       <c r="B190">
-        <v>352</v>
+        <v>872</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -8951,7 +8946,7 @@
         <v>45116</v>
       </c>
       <c r="B191">
-        <v>350</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -8959,7 +8954,7 @@
         <v>45117</v>
       </c>
       <c r="B192">
-        <v>387</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -8967,7 +8962,7 @@
         <v>45118</v>
       </c>
       <c r="B193">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -8975,7 +8970,7 @@
         <v>45119</v>
       </c>
       <c r="B194">
-        <v>491</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -8983,7 +8978,7 @@
         <v>45120</v>
       </c>
       <c r="B195">
-        <v>327</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -8991,7 +8986,7 @@
         <v>45121</v>
       </c>
       <c r="B196">
-        <v>227</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -8999,7 +8994,7 @@
         <v>45122</v>
       </c>
       <c r="B197">
-        <v>634</v>
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -9007,7 +9002,7 @@
         <v>45123</v>
       </c>
       <c r="B198">
-        <v>327</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -9015,7 +9010,7 @@
         <v>45124</v>
       </c>
       <c r="B199">
-        <v>750</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -9023,7 +9018,7 @@
         <v>45125</v>
       </c>
       <c r="B200">
-        <v>775</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -9031,7 +9026,7 @@
         <v>45126</v>
       </c>
       <c r="B201">
-        <v>556</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -9039,7 +9034,7 @@
         <v>45127</v>
       </c>
       <c r="B202">
-        <v>425</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -9047,7 +9042,7 @@
         <v>45128</v>
       </c>
       <c r="B203">
-        <v>821</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -9055,7 +9050,7 @@
         <v>45129</v>
       </c>
       <c r="B204">
-        <v>865</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -9063,7 +9058,7 @@
         <v>45130</v>
       </c>
       <c r="B205">
-        <v>442</v>
+        <v>906</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -9071,7 +9066,7 @@
         <v>45131</v>
       </c>
       <c r="B206">
-        <v>388</v>
+        <v>495</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -9079,7 +9074,7 @@
         <v>45132</v>
       </c>
       <c r="B207">
-        <v>343</v>
+        <v>526</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -9087,7 +9082,7 @@
         <v>45133</v>
       </c>
       <c r="B208">
-        <v>798</v>
+        <v>739</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -9095,7 +9090,7 @@
         <v>45134</v>
       </c>
       <c r="B209">
-        <v>572</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -9103,7 +9098,7 @@
         <v>45135</v>
       </c>
       <c r="B210">
-        <v>235</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -9111,7 +9106,7 @@
         <v>45136</v>
       </c>
       <c r="B211">
-        <v>278</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -9119,7 +9114,7 @@
         <v>45137</v>
       </c>
       <c r="B212">
-        <v>443</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -9127,7 +9122,7 @@
         <v>45138</v>
       </c>
       <c r="B213">
-        <v>308</v>
+        <v>651</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -9135,7 +9130,7 @@
         <v>45139</v>
       </c>
       <c r="B214">
-        <v>147</v>
+        <v>593</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -9143,7 +9138,7 @@
         <v>45140</v>
       </c>
       <c r="B215">
-        <v>463</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -9151,7 +9146,7 @@
         <v>45141</v>
       </c>
       <c r="B216">
-        <v>218</v>
+        <v>957</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -9159,7 +9154,7 @@
         <v>45142</v>
       </c>
       <c r="B217">
-        <v>751</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -9167,7 +9162,7 @@
         <v>45143</v>
       </c>
       <c r="B218">
-        <v>410</v>
+        <v>913</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -9175,7 +9170,7 @@
         <v>45144</v>
       </c>
       <c r="B219">
-        <v>291</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -9183,7 +9178,7 @@
         <v>45145</v>
       </c>
       <c r="B220">
-        <v>197</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -9191,7 +9186,7 @@
         <v>45146</v>
       </c>
       <c r="B221">
-        <v>997</v>
+        <v>291</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -9199,7 +9194,7 @@
         <v>45147</v>
       </c>
       <c r="B222">
-        <v>438</v>
+        <v>784</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -9207,7 +9202,7 @@
         <v>45148</v>
       </c>
       <c r="B223">
-        <v>233</v>
+        <v>966</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -9215,7 +9210,7 @@
         <v>45149</v>
       </c>
       <c r="B224">
-        <v>597</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -9223,7 +9218,7 @@
         <v>45150</v>
       </c>
       <c r="B225">
-        <v>384</v>
+        <v>143</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -9231,7 +9226,7 @@
         <v>45151</v>
       </c>
       <c r="B226">
-        <v>862</v>
+        <v>654</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -9239,7 +9234,7 @@
         <v>45152</v>
       </c>
       <c r="B227">
-        <v>815</v>
+        <v>844</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -9247,7 +9242,7 @@
         <v>45153</v>
       </c>
       <c r="B228">
-        <v>579</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -9255,7 +9250,7 @@
         <v>45154</v>
       </c>
       <c r="B229">
-        <v>212</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -9263,7 +9258,7 @@
         <v>45155</v>
       </c>
       <c r="B230">
-        <v>288</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -9271,7 +9266,7 @@
         <v>45156</v>
       </c>
       <c r="B231">
-        <v>806</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -9279,7 +9274,7 @@
         <v>45157</v>
       </c>
       <c r="B232">
-        <v>997</v>
+        <v>881</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -9287,7 +9282,7 @@
         <v>45158</v>
       </c>
       <c r="B233">
-        <v>888</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -9295,7 +9290,7 @@
         <v>45159</v>
       </c>
       <c r="B234">
-        <v>205</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -9303,7 +9298,7 @@
         <v>45160</v>
       </c>
       <c r="B235">
-        <v>309</v>
+        <v>716</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -9311,7 +9306,7 @@
         <v>45161</v>
       </c>
       <c r="B236">
-        <v>790</v>
+        <v>361</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -9319,7 +9314,7 @@
         <v>45162</v>
       </c>
       <c r="B237">
-        <v>128</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -9327,7 +9322,7 @@
         <v>45163</v>
       </c>
       <c r="B238">
-        <v>609</v>
+        <v>782</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -9335,7 +9330,7 @@
         <v>45164</v>
       </c>
       <c r="B239">
-        <v>857</v>
+        <v>459</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -9343,7 +9338,7 @@
         <v>45165</v>
       </c>
       <c r="B240">
-        <v>381</v>
+        <v>925</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -9351,7 +9346,7 @@
         <v>45166</v>
       </c>
       <c r="B241">
-        <v>656</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -9359,7 +9354,7 @@
         <v>45167</v>
       </c>
       <c r="B242">
-        <v>838</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -9367,7 +9362,7 @@
         <v>45168</v>
       </c>
       <c r="B243">
-        <v>222</v>
+        <v>699</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -9375,7 +9370,7 @@
         <v>45169</v>
       </c>
       <c r="B244">
-        <v>384</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -9383,7 +9378,7 @@
         <v>45170</v>
       </c>
       <c r="B245">
-        <v>844</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -9391,7 +9386,7 @@
         <v>45171</v>
       </c>
       <c r="B246">
-        <v>662</v>
+        <v>811</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -9399,7 +9394,7 @@
         <v>45172</v>
       </c>
       <c r="B247">
-        <v>500</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -9407,7 +9402,7 @@
         <v>45173</v>
       </c>
       <c r="B248">
-        <v>624</v>
+        <v>383</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -9415,7 +9410,7 @@
         <v>45174</v>
       </c>
       <c r="B249">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -9423,7 +9418,7 @@
         <v>45175</v>
       </c>
       <c r="B250">
-        <v>897</v>
+        <v>767</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -9431,7 +9426,7 @@
         <v>45176</v>
       </c>
       <c r="B251">
-        <v>338</v>
+        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -9439,7 +9434,7 @@
         <v>45177</v>
       </c>
       <c r="B252">
-        <v>984</v>
+        <v>136</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -9447,7 +9442,7 @@
         <v>45178</v>
       </c>
       <c r="B253">
-        <v>350</v>
+        <v>608</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -9455,7 +9450,7 @@
         <v>45179</v>
       </c>
       <c r="B254">
-        <v>216</v>
+        <v>720</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -9463,7 +9458,7 @@
         <v>45180</v>
       </c>
       <c r="B255">
-        <v>288</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -9471,7 +9466,7 @@
         <v>45181</v>
       </c>
       <c r="B256">
-        <v>875</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -9479,7 +9474,7 @@
         <v>45182</v>
       </c>
       <c r="B257">
-        <v>982</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -9487,7 +9482,7 @@
         <v>45183</v>
       </c>
       <c r="B258">
-        <v>601</v>
+        <v>344</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -9495,7 +9490,7 @@
         <v>45184</v>
       </c>
       <c r="B259">
-        <v>768</v>
+        <v>518</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -9503,7 +9498,7 @@
         <v>45185</v>
       </c>
       <c r="B260">
-        <v>217</v>
+        <v>918</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -9511,7 +9506,7 @@
         <v>45186</v>
       </c>
       <c r="B261">
-        <v>129</v>
+        <v>930</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -9519,7 +9514,7 @@
         <v>45187</v>
       </c>
       <c r="B262">
-        <v>864</v>
+        <v>430</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -9527,7 +9522,7 @@
         <v>45188</v>
       </c>
       <c r="B263">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -9535,7 +9530,7 @@
         <v>45189</v>
       </c>
       <c r="B264">
-        <v>416</v>
+        <v>804</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -9543,7 +9538,7 @@
         <v>45190</v>
       </c>
       <c r="B265">
-        <v>794</v>
+        <v>298</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -9551,7 +9546,7 @@
         <v>45191</v>
       </c>
       <c r="B266">
-        <v>632</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -9559,7 +9554,7 @@
         <v>45192</v>
       </c>
       <c r="B267">
-        <v>327</v>
+        <v>197</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -9567,7 +9562,7 @@
         <v>45193</v>
       </c>
       <c r="B268">
-        <v>186</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -9575,7 +9570,7 @@
         <v>45194</v>
       </c>
       <c r="B269">
-        <v>424</v>
+        <v>370</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -9583,7 +9578,7 @@
         <v>45195</v>
       </c>
       <c r="B270">
-        <v>942</v>
+        <v>307</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -9591,7 +9586,7 @@
         <v>45196</v>
       </c>
       <c r="B271">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
@@ -9599,7 +9594,7 @@
         <v>45197</v>
       </c>
       <c r="B272">
-        <v>271</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
@@ -9607,7 +9602,7 @@
         <v>45198</v>
       </c>
       <c r="B273">
-        <v>991</v>
+        <v>701</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -9615,7 +9610,7 @@
         <v>45199</v>
       </c>
       <c r="B274">
-        <v>626</v>
+        <v>105</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -9623,7 +9618,7 @@
         <v>45200</v>
       </c>
       <c r="B275">
-        <v>859</v>
+        <v>824</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
@@ -9631,7 +9626,7 @@
         <v>45201</v>
       </c>
       <c r="B276">
-        <v>653</v>
+        <v>970</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -9639,7 +9634,7 @@
         <v>45202</v>
       </c>
       <c r="B277">
-        <v>583</v>
+        <v>881</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -9647,7 +9642,7 @@
         <v>45203</v>
       </c>
       <c r="B278">
-        <v>557</v>
+        <v>230</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -9655,7 +9650,7 @@
         <v>45204</v>
       </c>
       <c r="B279">
-        <v>271</v>
+        <v>877</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -9663,7 +9658,7 @@
         <v>45205</v>
       </c>
       <c r="B280">
-        <v>154</v>
+        <v>983</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -9671,7 +9666,7 @@
         <v>45206</v>
       </c>
       <c r="B281">
-        <v>215</v>
+        <v>356</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -9679,7 +9674,7 @@
         <v>45207</v>
       </c>
       <c r="B282">
-        <v>834</v>
+        <v>529</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -9687,7 +9682,7 @@
         <v>45208</v>
       </c>
       <c r="B283">
-        <v>931</v>
+        <v>783</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -9695,7 +9690,7 @@
         <v>45209</v>
       </c>
       <c r="B284">
-        <v>626</v>
+        <v>695</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -9703,7 +9698,7 @@
         <v>45210</v>
       </c>
       <c r="B285">
-        <v>260</v>
+        <v>789</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -9711,7 +9706,7 @@
         <v>45211</v>
       </c>
       <c r="B286">
-        <v>534</v>
+        <v>742</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -9719,7 +9714,7 @@
         <v>45212</v>
       </c>
       <c r="B287">
-        <v>316</v>
+        <v>773</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -9727,7 +9722,7 @@
         <v>45213</v>
       </c>
       <c r="B288">
-        <v>162</v>
+        <v>887</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -9735,7 +9730,7 @@
         <v>45214</v>
       </c>
       <c r="B289">
-        <v>323</v>
+        <v>845</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -9743,7 +9738,7 @@
         <v>45215</v>
       </c>
       <c r="B290">
-        <v>939</v>
+        <v>383</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
@@ -9751,7 +9746,7 @@
         <v>45216</v>
       </c>
       <c r="B291">
-        <v>706</v>
+        <v>463</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -9759,7 +9754,7 @@
         <v>45217</v>
       </c>
       <c r="B292">
-        <v>888</v>
+        <v>253</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -9767,7 +9762,7 @@
         <v>45218</v>
       </c>
       <c r="B293">
-        <v>667</v>
+        <v>752</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -9775,7 +9770,7 @@
         <v>45219</v>
       </c>
       <c r="B294">
-        <v>272</v>
+        <v>970</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -9783,7 +9778,7 @@
         <v>45220</v>
       </c>
       <c r="B295">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -9791,7 +9786,7 @@
         <v>45221</v>
       </c>
       <c r="B296">
-        <v>445</v>
+        <v>970</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -9799,7 +9794,7 @@
         <v>45222</v>
       </c>
       <c r="B297">
-        <v>506</v>
+        <v>383</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -9807,7 +9802,7 @@
         <v>45223</v>
       </c>
       <c r="B298">
-        <v>259</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -9815,7 +9810,7 @@
         <v>45224</v>
       </c>
       <c r="B299">
-        <v>418</v>
+        <v>706</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -9823,7 +9818,7 @@
         <v>45225</v>
       </c>
       <c r="B300">
-        <v>963</v>
+        <v>908</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -9831,7 +9826,7 @@
         <v>45226</v>
       </c>
       <c r="B301">
-        <v>503</v>
+        <v>592</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -9839,7 +9834,7 @@
         <v>45227</v>
       </c>
       <c r="B302">
-        <v>915</v>
+        <v>698</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -9847,7 +9842,7 @@
         <v>45228</v>
       </c>
       <c r="B303">
-        <v>304</v>
+        <v>682</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
@@ -9855,7 +9850,7 @@
         <v>45229</v>
       </c>
       <c r="B304">
-        <v>557</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
@@ -9863,7 +9858,7 @@
         <v>45230</v>
       </c>
       <c r="B305">
-        <v>355</v>
+        <v>133</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -9871,7 +9866,7 @@
         <v>45231</v>
       </c>
       <c r="B306">
-        <v>996</v>
+        <v>292</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
@@ -9879,7 +9874,7 @@
         <v>45232</v>
       </c>
       <c r="B307">
-        <v>331</v>
+        <v>844</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -9887,7 +9882,7 @@
         <v>45233</v>
       </c>
       <c r="B308">
-        <v>411</v>
+        <v>234</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
@@ -9895,7 +9890,7 @@
         <v>45234</v>
       </c>
       <c r="B309">
-        <v>382</v>
+        <v>663</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
@@ -9903,7 +9898,7 @@
         <v>45235</v>
       </c>
       <c r="B310">
-        <v>965</v>
+        <v>160</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
@@ -9911,7 +9906,7 @@
         <v>45236</v>
       </c>
       <c r="B311">
-        <v>221</v>
+        <v>824</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
@@ -9919,7 +9914,7 @@
         <v>45237</v>
       </c>
       <c r="B312">
-        <v>418</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
@@ -9927,7 +9922,7 @@
         <v>45238</v>
       </c>
       <c r="B313">
-        <v>538</v>
+        <v>176</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
@@ -9935,7 +9930,7 @@
         <v>45239</v>
       </c>
       <c r="B314">
-        <v>697</v>
+        <v>670</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
@@ -9943,7 +9938,7 @@
         <v>45240</v>
       </c>
       <c r="B315">
-        <v>485</v>
+        <v>113</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -9951,7 +9946,7 @@
         <v>45241</v>
       </c>
       <c r="B316">
-        <v>497</v>
+        <v>653</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
@@ -9959,7 +9954,7 @@
         <v>45242</v>
       </c>
       <c r="B317">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -9967,7 +9962,7 @@
         <v>45243</v>
       </c>
       <c r="B318">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -9975,7 +9970,7 @@
         <v>45244</v>
       </c>
       <c r="B319">
-        <v>331</v>
+        <v>527</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
@@ -9983,7 +9978,7 @@
         <v>45245</v>
       </c>
       <c r="B320">
-        <v>651</v>
+        <v>803</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
@@ -9991,7 +9986,7 @@
         <v>45246</v>
       </c>
       <c r="B321">
-        <v>655</v>
+        <v>525</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
@@ -9999,7 +9994,7 @@
         <v>45247</v>
       </c>
       <c r="B322">
-        <v>600</v>
+        <v>490</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
@@ -10007,7 +10002,7 @@
         <v>45248</v>
       </c>
       <c r="B323">
-        <v>994</v>
+        <v>545</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
@@ -10015,7 +10010,7 @@
         <v>45249</v>
       </c>
       <c r="B324">
-        <v>553</v>
+        <v>153</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
@@ -10023,7 +10018,7 @@
         <v>45250</v>
       </c>
       <c r="B325">
-        <v>665</v>
+        <v>548</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -10031,7 +10026,7 @@
         <v>45251</v>
       </c>
       <c r="B326">
-        <v>332</v>
+        <v>891</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
@@ -10039,7 +10034,7 @@
         <v>45252</v>
       </c>
       <c r="B327">
-        <v>544</v>
+        <v>962</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
@@ -10047,7 +10042,7 @@
         <v>45253</v>
       </c>
       <c r="B328">
-        <v>883</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
@@ -10055,7 +10050,7 @@
         <v>45254</v>
       </c>
       <c r="B329">
-        <v>750</v>
+        <v>220</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
@@ -10063,7 +10058,7 @@
         <v>45255</v>
       </c>
       <c r="B330">
-        <v>425</v>
+        <v>137</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
@@ -10071,7 +10066,7 @@
         <v>45256</v>
       </c>
       <c r="B331">
-        <v>715</v>
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -10079,7 +10074,7 @@
         <v>45257</v>
       </c>
       <c r="B332">
-        <v>441</v>
+        <v>512</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -10087,7 +10082,7 @@
         <v>45258</v>
       </c>
       <c r="B333">
-        <v>549</v>
+        <v>409</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -10095,7 +10090,7 @@
         <v>45259</v>
       </c>
       <c r="B334">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -10103,7 +10098,7 @@
         <v>45260</v>
       </c>
       <c r="B335">
-        <v>971</v>
+        <v>840</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -10111,7 +10106,7 @@
         <v>45261</v>
       </c>
       <c r="B336">
-        <v>352</v>
+        <v>247</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -10119,7 +10114,7 @@
         <v>45262</v>
       </c>
       <c r="B337">
-        <v>252</v>
+        <v>900</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
@@ -10127,7 +10122,7 @@
         <v>45263</v>
       </c>
       <c r="B338">
-        <v>637</v>
+        <v>853</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -10135,7 +10130,7 @@
         <v>45264</v>
       </c>
       <c r="B339">
-        <v>776</v>
+        <v>166</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -10143,7 +10138,7 @@
         <v>45265</v>
       </c>
       <c r="B340">
-        <v>336</v>
+        <v>528</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
@@ -10151,7 +10146,7 @@
         <v>45266</v>
       </c>
       <c r="B341">
-        <v>543</v>
+        <v>685</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
@@ -10159,7 +10154,7 @@
         <v>45267</v>
       </c>
       <c r="B342">
-        <v>111</v>
+        <v>975</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
@@ -10167,7 +10162,7 @@
         <v>45268</v>
       </c>
       <c r="B343">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
@@ -10175,7 +10170,7 @@
         <v>45269</v>
       </c>
       <c r="B344">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
@@ -10183,7 +10178,7 @@
         <v>45270</v>
       </c>
       <c r="B345">
-        <v>243</v>
+        <v>997</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
@@ -10191,7 +10186,7 @@
         <v>45271</v>
       </c>
       <c r="B346">
-        <v>753</v>
+        <v>713</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
@@ -10199,7 +10194,7 @@
         <v>45272</v>
       </c>
       <c r="B347">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -10207,7 +10202,7 @@
         <v>45273</v>
       </c>
       <c r="B348">
-        <v>667</v>
+        <v>617</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -10215,7 +10210,7 @@
         <v>45274</v>
       </c>
       <c r="B349">
-        <v>155</v>
+        <v>869</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
@@ -10223,7 +10218,7 @@
         <v>45275</v>
       </c>
       <c r="B350">
-        <v>812</v>
+        <v>688</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
@@ -10231,7 +10226,7 @@
         <v>45276</v>
       </c>
       <c r="B351">
-        <v>697</v>
+        <v>591</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
@@ -10239,7 +10234,7 @@
         <v>45277</v>
       </c>
       <c r="B352">
-        <v>785</v>
+        <v>976</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
@@ -10247,7 +10242,7 @@
         <v>45278</v>
       </c>
       <c r="B353">
-        <v>899</v>
+        <v>745</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
@@ -10255,7 +10250,7 @@
         <v>45279</v>
       </c>
       <c r="B354">
-        <v>591</v>
+        <v>632</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -10263,7 +10258,7 @@
         <v>45280</v>
       </c>
       <c r="B355">
-        <v>529</v>
+        <v>608</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
@@ -10271,7 +10266,7 @@
         <v>45281</v>
       </c>
       <c r="B356">
-        <v>506</v>
+        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -10279,7 +10274,7 @@
         <v>45282</v>
       </c>
       <c r="B357">
-        <v>314</v>
+        <v>857</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
@@ -10287,7 +10282,7 @@
         <v>45283</v>
       </c>
       <c r="B358">
-        <v>188</v>
+        <v>605</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
@@ -10295,7 +10290,7 @@
         <v>45284</v>
       </c>
       <c r="B359">
-        <v>497</v>
+        <v>538</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
@@ -10303,7 +10298,7 @@
         <v>45285</v>
       </c>
       <c r="B360">
-        <v>810</v>
+        <v>399</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
@@ -10311,7 +10306,7 @@
         <v>45286</v>
       </c>
       <c r="B361">
-        <v>674</v>
+        <v>124</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
@@ -10319,7 +10314,7 @@
         <v>45287</v>
       </c>
       <c r="B362">
-        <v>902</v>
+        <v>989</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
@@ -10327,7 +10322,7 @@
         <v>45288</v>
       </c>
       <c r="B363">
-        <v>788</v>
+        <v>603</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
@@ -10335,7 +10330,7 @@
         <v>45289</v>
       </c>
       <c r="B364">
-        <v>289</v>
+        <v>817</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
@@ -10343,7 +10338,7 @@
         <v>45290</v>
       </c>
       <c r="B365">
-        <v>663</v>
+        <v>696</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
@@ -10351,10 +10346,10 @@
         <v>45291</v>
       </c>
       <c r="B366">
-        <v>771</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>